--- a/src/data/CLUBLE - dados dos clubes.xlsx
+++ b/src/data/CLUBLE - dados dos clubes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\cluble-game\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B81ED16-B527-4780-B872-42E0CE62213D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50EB15E-02C0-4C61-B0D1-F05A95A0C061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="745">
   <si>
     <t>id</t>
   </si>
@@ -1117,9 +1117,6 @@
     <t>Estádio Antônio Accioly</t>
   </si>
   <si>
-    <t>Mineirão / Arena MRV</t>
-  </si>
-  <si>
     <t>Arena Fonte Nova</t>
   </si>
   <si>
@@ -1135,9 +1132,6 @@
     <t>Estádio Heriberto Hülse</t>
   </si>
   <si>
-    <t>Mineirão / Arena Independência</t>
-  </si>
-  <si>
     <t>Arena Pantanal</t>
   </si>
   <si>
@@ -1171,9 +1165,6 @@
     <t>Estádio São Januário</t>
   </si>
   <si>
-    <t xml:space="preserve">Estádio Governador Magalhães Pinto </t>
-  </si>
-  <si>
     <t>Estádio Governador Magalhães Pinto</t>
   </si>
   <si>
@@ -2264,6 +2255,12 @@
   </si>
   <si>
     <t>['red', 'green']</t>
+  </si>
+  <si>
+    <t>Arena MRV</t>
+  </si>
+  <si>
+    <t>Mineirão</t>
   </si>
 </sst>
 </file>
@@ -2365,10 +2362,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2653,10 +2650,10 @@
   <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2732,19 +2729,19 @@
         <v>361</v>
       </c>
       <c r="H2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="K2">
         <v>1924</v>
       </c>
       <c r="L2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2776,13 +2773,13 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="K3">
         <v>1937</v>
       </c>
       <c r="L3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2804,23 +2801,23 @@
       <c r="F4" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>381</v>
+      <c r="G4" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>743</v>
       </c>
       <c r="I4" t="s">
         <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K4">
         <v>1908</v>
       </c>
       <c r="L4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2843,22 +2840,22 @@
         <v>143</v>
       </c>
       <c r="G5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I5" t="s">
         <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="K5">
         <v>1931</v>
       </c>
       <c r="L5" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2881,22 +2878,22 @@
         <v>143</v>
       </c>
       <c r="G6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I6" t="s">
         <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K6">
         <v>1904</v>
       </c>
       <c r="L6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2919,22 +2916,22 @@
         <v>143</v>
       </c>
       <c r="G7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I7" t="s">
         <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="K7">
         <v>1928</v>
       </c>
       <c r="L7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2957,22 +2954,22 @@
         <v>143</v>
       </c>
       <c r="G8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I8" t="s">
         <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="K8">
         <v>1910</v>
       </c>
       <c r="L8" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2995,22 +2992,22 @@
         <v>143</v>
       </c>
       <c r="G9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I9" t="s">
         <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="K9">
         <v>1947</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3032,23 +3029,23 @@
       <c r="F10" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>382</v>
+      <c r="G10" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>379</v>
       </c>
       <c r="I10" t="s">
         <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="K10">
         <v>1921</v>
       </c>
       <c r="L10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3071,22 +3068,22 @@
         <v>143</v>
       </c>
       <c r="G11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I11" t="s">
         <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="K11">
         <v>2001</v>
       </c>
       <c r="L11" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3112,19 +3109,19 @@
         <v>153</v>
       </c>
       <c r="H12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I12" t="s">
         <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="K12">
         <v>1895</v>
       </c>
       <c r="L12" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3150,19 +3147,19 @@
         <v>153</v>
       </c>
       <c r="H13" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I13" t="s">
         <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="K13">
         <v>1902</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3185,22 +3182,22 @@
         <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I14" t="s">
         <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="K14">
         <v>1918</v>
       </c>
       <c r="L14" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3223,22 +3220,22 @@
         <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I15" t="s">
         <v>30</v>
       </c>
       <c r="J15" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="K15">
         <v>1903</v>
       </c>
       <c r="L15" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3261,22 +3258,22 @@
         <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H16" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I16" t="s">
         <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="K16">
         <v>1909</v>
       </c>
       <c r="L16" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3299,22 +3296,22 @@
         <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I17" t="s">
         <v>30</v>
       </c>
       <c r="J17" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="K17">
         <v>1913</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3337,22 +3334,22 @@
         <v>143</v>
       </c>
       <c r="G18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I18" t="s">
         <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="K18">
         <v>1914</v>
       </c>
       <c r="L18" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3375,22 +3372,22 @@
         <v>143</v>
       </c>
       <c r="G19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H19" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I19" t="s">
         <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="K19">
         <v>1930</v>
       </c>
       <c r="L19" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3413,22 +3410,22 @@
         <v>143</v>
       </c>
       <c r="G20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I20" t="s">
         <v>30</v>
       </c>
       <c r="J20" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K20">
         <v>1898</v>
       </c>
       <c r="L20" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3451,22 +3448,22 @@
         <v>143</v>
       </c>
       <c r="G21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H21" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I21" t="s">
         <v>30</v>
       </c>
       <c r="J21" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="K21">
         <v>1899</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3489,22 +3486,22 @@
         <v>143</v>
       </c>
       <c r="G22" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H22" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I22" t="s">
         <v>31</v>
       </c>
       <c r="J22" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K22">
         <v>2019</v>
       </c>
       <c r="L22" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3527,22 +3524,22 @@
         <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H23" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I23" t="s">
         <v>31</v>
       </c>
       <c r="J23" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="K23">
         <v>1912</v>
       </c>
       <c r="L23" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3565,22 +3562,22 @@
         <v>143</v>
       </c>
       <c r="G24" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H24" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I24" t="s">
         <v>31</v>
       </c>
       <c r="J24" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="K24">
         <v>1923</v>
       </c>
       <c r="L24" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3603,22 +3600,22 @@
         <v>143</v>
       </c>
       <c r="G25" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I25" t="s">
         <v>31</v>
       </c>
       <c r="J25" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="K25">
         <v>1918</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3641,22 +3638,22 @@
         <v>143</v>
       </c>
       <c r="G26" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H26" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I26" t="s">
         <v>31</v>
       </c>
       <c r="J26" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="K26">
         <v>1987</v>
       </c>
-      <c r="L26" s="8" t="s">
-        <v>610</v>
+      <c r="L26" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3679,22 +3676,22 @@
         <v>143</v>
       </c>
       <c r="G27" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H27" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I27" t="s">
         <v>31</v>
       </c>
       <c r="J27" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K27">
         <v>1914</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3717,22 +3714,22 @@
         <v>143</v>
       </c>
       <c r="G28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I28" t="s">
         <v>31</v>
       </c>
       <c r="J28" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="K28">
         <v>1973</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3755,22 +3752,22 @@
         <v>143</v>
       </c>
       <c r="G29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H29" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I29" t="s">
         <v>31</v>
       </c>
       <c r="J29" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="K29">
         <v>1909</v>
       </c>
-      <c r="L29" s="8" t="s">
-        <v>605</v>
+      <c r="L29" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3793,22 +3790,22 @@
         <v>143</v>
       </c>
       <c r="G30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H30" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I30" t="s">
         <v>31</v>
       </c>
       <c r="J30" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="K30">
         <v>1912</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3831,22 +3828,22 @@
         <v>143</v>
       </c>
       <c r="G31" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H31" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I31" t="s">
         <v>31</v>
       </c>
       <c r="J31" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="K31">
         <v>1943</v>
       </c>
-      <c r="L31" s="8" t="s">
-        <v>604</v>
+      <c r="L31" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3869,22 +3866,22 @@
         <v>143</v>
       </c>
       <c r="G32" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H32" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I32" t="s">
         <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="K32">
         <v>1911</v>
       </c>
-      <c r="L32" s="8" t="s">
-        <v>613</v>
+      <c r="L32" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3907,22 +3904,22 @@
         <v>143</v>
       </c>
       <c r="G33" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H33" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I33" t="s">
         <v>31</v>
       </c>
       <c r="J33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="K33">
         <v>1947</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3945,22 +3942,22 @@
         <v>143</v>
       </c>
       <c r="G34" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H34" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I34" t="s">
         <v>31</v>
       </c>
       <c r="J34" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="K34">
         <v>1925</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3983,22 +3980,22 @@
         <v>143</v>
       </c>
       <c r="G35" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H35" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I35" t="s">
         <v>31</v>
       </c>
       <c r="J35" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K35">
         <v>2010</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -4021,22 +4018,22 @@
         <v>143</v>
       </c>
       <c r="G36" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H36" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I36" t="s">
         <v>31</v>
       </c>
       <c r="J36" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K36">
         <v>1912</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -4059,22 +4056,22 @@
         <v>143</v>
       </c>
       <c r="G37" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H37" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I37" t="s">
         <v>31</v>
       </c>
       <c r="J37" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="K37">
         <v>1914</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -4097,22 +4094,22 @@
         <v>143</v>
       </c>
       <c r="G38" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H38" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I38" t="s">
         <v>31</v>
       </c>
       <c r="J38" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K38">
         <v>1900</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -4135,22 +4132,22 @@
         <v>143</v>
       </c>
       <c r="G39" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H39" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I39" t="s">
         <v>31</v>
       </c>
       <c r="J39" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="K39">
         <v>1912</v>
       </c>
-      <c r="L39" s="8" t="s">
-        <v>619</v>
+      <c r="L39" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -4173,22 +4170,22 @@
         <v>143</v>
       </c>
       <c r="G40" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H40" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I40" t="s">
         <v>31</v>
       </c>
       <c r="J40" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="K40">
         <v>1905</v>
       </c>
-      <c r="L40" s="8" t="s">
-        <v>620</v>
+      <c r="L40" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -4211,22 +4208,22 @@
         <v>143</v>
       </c>
       <c r="G41" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H41" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I41" t="s">
         <v>31</v>
       </c>
       <c r="J41" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="K41">
         <v>1943</v>
       </c>
-      <c r="L41" s="8" t="s">
-        <v>604</v>
+      <c r="L41" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -4249,22 +4246,22 @@
         <v>143</v>
       </c>
       <c r="G42" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H42" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I42" t="s">
         <v>32</v>
       </c>
       <c r="J42" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K42">
         <v>1915</v>
       </c>
       <c r="L42" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -4287,22 +4284,22 @@
         <v>143</v>
       </c>
       <c r="G43" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H43" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I43" t="s">
         <v>32</v>
       </c>
       <c r="J43" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="K43">
         <v>1985</v>
       </c>
       <c r="L43" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -4325,22 +4322,22 @@
         <v>143</v>
       </c>
       <c r="G44" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H44" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I44" t="s">
         <v>32</v>
       </c>
       <c r="J44" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K44">
         <v>1933</v>
       </c>
       <c r="L44" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -4363,22 +4360,22 @@
         <v>143</v>
       </c>
       <c r="G45" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H45" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I45" t="s">
         <v>32</v>
       </c>
       <c r="J45" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K45">
         <v>1931</v>
       </c>
       <c r="L45" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -4401,22 +4398,22 @@
         <v>143</v>
       </c>
       <c r="G46" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H46" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I46" t="s">
         <v>32</v>
       </c>
       <c r="J46" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="K46">
         <v>1935</v>
       </c>
       <c r="L46" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -4439,22 +4436,22 @@
         <v>143</v>
       </c>
       <c r="G47" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H47" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I47" t="s">
         <v>32</v>
       </c>
       <c r="J47" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="K47">
         <v>1936</v>
       </c>
       <c r="L47" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -4477,22 +4474,22 @@
         <v>143</v>
       </c>
       <c r="G48" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H48" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I48" t="s">
         <v>32</v>
       </c>
       <c r="J48" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="K48">
         <v>1913</v>
       </c>
       <c r="L48" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -4515,22 +4512,22 @@
         <v>143</v>
       </c>
       <c r="G49" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H49" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I49" t="s">
         <v>32</v>
       </c>
       <c r="J49" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="K49">
         <v>1950</v>
       </c>
       <c r="L49" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -4553,22 +4550,22 @@
         <v>143</v>
       </c>
       <c r="G50" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H50" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I50" t="s">
         <v>32</v>
       </c>
       <c r="J50" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="K50">
         <v>1933</v>
       </c>
       <c r="L50" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -4591,22 +4588,22 @@
         <v>143</v>
       </c>
       <c r="G51" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H51" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I51" t="s">
         <v>32</v>
       </c>
       <c r="J51" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K51">
         <v>1921</v>
       </c>
       <c r="L51" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -4629,22 +4626,22 @@
         <v>143</v>
       </c>
       <c r="G52" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H52" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I52" t="s">
         <v>32</v>
       </c>
       <c r="J52" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="K52">
         <v>1954</v>
       </c>
       <c r="L52" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4667,22 +4664,22 @@
         <v>143</v>
       </c>
       <c r="G53" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H53" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I53" t="s">
         <v>32</v>
       </c>
       <c r="J53" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="K53">
         <v>1956</v>
       </c>
       <c r="L53" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4705,22 +4702,22 @@
         <v>143</v>
       </c>
       <c r="G54" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H54" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I54" t="s">
         <v>32</v>
       </c>
       <c r="J54" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="K54">
         <v>1901</v>
       </c>
       <c r="L54" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -4743,22 +4740,22 @@
         <v>143</v>
       </c>
       <c r="G55" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H55" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I55" t="s">
         <v>32</v>
       </c>
       <c r="J55" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="K55">
         <v>1905</v>
       </c>
       <c r="L55" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -4781,22 +4778,22 @@
         <v>143</v>
       </c>
       <c r="G56" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H56" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I56" t="s">
         <v>32</v>
       </c>
       <c r="J56" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="K56">
         <v>1923</v>
       </c>
       <c r="L56" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -4819,22 +4816,22 @@
         <v>143</v>
       </c>
       <c r="G57" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H57" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I57" t="s">
         <v>32</v>
       </c>
       <c r="J57" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K57">
         <v>2004</v>
       </c>
       <c r="L57" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -4857,22 +4854,22 @@
         <v>143</v>
       </c>
       <c r="G58" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H58" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I58" t="s">
         <v>32</v>
       </c>
       <c r="J58" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="K58">
         <v>1913</v>
       </c>
       <c r="L58" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -4895,22 +4892,22 @@
         <v>143</v>
       </c>
       <c r="G59" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H59" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I59" t="s">
         <v>32</v>
       </c>
       <c r="J59" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="K59">
         <v>1914</v>
       </c>
       <c r="L59" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4933,22 +4930,22 @@
         <v>143</v>
       </c>
       <c r="G60" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H60" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I60" t="s">
         <v>32</v>
       </c>
       <c r="J60" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K60">
         <v>1976</v>
       </c>
       <c r="L60" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4971,22 +4968,22 @@
         <v>143</v>
       </c>
       <c r="G61" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H61" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I61" t="s">
         <v>32</v>
       </c>
       <c r="J61" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="K61">
         <v>1928</v>
       </c>
       <c r="L61" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -5009,10 +5006,10 @@
         <v>143</v>
       </c>
       <c r="G62" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H62" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I62" t="s">
         <v>134</v>
@@ -5021,7 +5018,7 @@
         <v>1981</v>
       </c>
       <c r="L62" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -5044,10 +5041,10 @@
         <v>143</v>
       </c>
       <c r="G63" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H63" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I63" t="s">
         <v>134</v>
@@ -5056,7 +5053,7 @@
         <v>1982</v>
       </c>
       <c r="L63" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -5079,10 +5076,10 @@
         <v>143</v>
       </c>
       <c r="G64" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H64" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I64" t="s">
         <v>134</v>
@@ -5091,7 +5088,7 @@
         <v>2013</v>
       </c>
       <c r="L64" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -5114,10 +5111,10 @@
         <v>143</v>
       </c>
       <c r="G65" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H65" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I65" t="s">
         <v>134</v>
@@ -5126,7 +5123,7 @@
         <v>1915</v>
       </c>
       <c r="L65" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -5149,10 +5146,10 @@
         <v>143</v>
       </c>
       <c r="G66" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H66" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I66" t="s">
         <v>134</v>
@@ -5161,7 +5158,7 @@
         <v>1949</v>
       </c>
       <c r="L66" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -5184,10 +5181,10 @@
         <v>143</v>
       </c>
       <c r="G67" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H67" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I67" t="s">
         <v>134</v>
@@ -5196,7 +5193,7 @@
         <v>1952</v>
       </c>
       <c r="L67" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -5219,10 +5216,10 @@
         <v>143</v>
       </c>
       <c r="G68" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H68" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I68" t="s">
         <v>134</v>
@@ -5231,7 +5228,7 @@
         <v>1996</v>
       </c>
       <c r="L68" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -5254,10 +5251,10 @@
         <v>143</v>
       </c>
       <c r="G69" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H69" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I69" t="s">
         <v>134</v>
@@ -5266,7 +5263,7 @@
         <v>1985</v>
       </c>
       <c r="L69" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -5289,10 +5286,10 @@
         <v>143</v>
       </c>
       <c r="G70" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H70" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I70" t="s">
         <v>134</v>
@@ -5301,7 +5298,7 @@
         <v>1944</v>
       </c>
       <c r="L70" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -5324,10 +5321,10 @@
         <v>143</v>
       </c>
       <c r="G71" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H71" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I71" t="s">
         <v>134</v>
@@ -5336,7 +5333,7 @@
         <v>2013</v>
       </c>
       <c r="L71" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -5359,10 +5356,10 @@
         <v>143</v>
       </c>
       <c r="G72" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H72" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I72" t="s">
         <v>134</v>
@@ -5371,7 +5368,7 @@
         <v>1911</v>
       </c>
       <c r="L72" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -5394,10 +5391,10 @@
         <v>143</v>
       </c>
       <c r="G73" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H73" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I73" t="s">
         <v>134</v>
@@ -5406,7 +5403,7 @@
         <v>2000</v>
       </c>
       <c r="L73" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -5429,10 +5426,10 @@
         <v>143</v>
       </c>
       <c r="G74" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H74" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I74" t="s">
         <v>134</v>
@@ -5441,7 +5438,7 @@
         <v>2007</v>
       </c>
       <c r="L74" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -5464,10 +5461,10 @@
         <v>143</v>
       </c>
       <c r="G75" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H75" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I75" t="s">
         <v>134</v>
@@ -5476,7 +5473,7 @@
         <v>2012</v>
       </c>
       <c r="L75" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -5499,10 +5496,10 @@
         <v>143</v>
       </c>
       <c r="G76" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H76" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I76" t="s">
         <v>134</v>
@@ -5511,7 +5508,7 @@
         <v>2002</v>
       </c>
       <c r="L76" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -5534,10 +5531,10 @@
         <v>143</v>
       </c>
       <c r="G77" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H77" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I77" t="s">
         <v>134</v>
@@ -5546,7 +5543,7 @@
         <v>2005</v>
       </c>
       <c r="L77" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -5569,10 +5566,10 @@
         <v>143</v>
       </c>
       <c r="G78" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H78" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I78" t="s">
         <v>134</v>
@@ -5581,7 +5578,7 @@
         <v>2004</v>
       </c>
       <c r="L78" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -5604,10 +5601,10 @@
         <v>143</v>
       </c>
       <c r="G79" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H79" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I79" t="s">
         <v>134</v>
@@ -5616,7 +5613,7 @@
         <v>1931</v>
       </c>
       <c r="L79" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -5639,10 +5636,10 @@
         <v>143</v>
       </c>
       <c r="G80" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H80" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I80" t="s">
         <v>134</v>
@@ -5651,7 +5648,7 @@
         <v>1947</v>
       </c>
       <c r="L80" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -5674,10 +5671,10 @@
         <v>143</v>
       </c>
       <c r="G81" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H81" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I81" t="s">
         <v>134</v>
@@ -5686,7 +5683,7 @@
         <v>1932</v>
       </c>
       <c r="L81" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -5709,10 +5706,10 @@
         <v>143</v>
       </c>
       <c r="G82" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H82" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I82" t="s">
         <v>134</v>
@@ -5721,7 +5718,7 @@
         <v>2008</v>
       </c>
       <c r="L82" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -5744,10 +5741,10 @@
         <v>143</v>
       </c>
       <c r="G83" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H83" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I83" t="s">
         <v>134</v>
@@ -5756,7 +5753,7 @@
         <v>1945</v>
       </c>
       <c r="L83" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5779,10 +5776,10 @@
         <v>143</v>
       </c>
       <c r="G84" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H84" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="I84" t="s">
         <v>134</v>
@@ -5791,7 +5788,7 @@
         <v>1948</v>
       </c>
       <c r="L84" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -5814,10 +5811,10 @@
         <v>143</v>
       </c>
       <c r="G85" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H85" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I85" t="s">
         <v>134</v>
@@ -5826,7 +5823,7 @@
         <v>1918</v>
       </c>
       <c r="L85" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5849,10 +5846,10 @@
         <v>143</v>
       </c>
       <c r="G86" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H86" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="I86" t="s">
         <v>134</v>
@@ -5861,7 +5858,7 @@
         <v>2011</v>
       </c>
       <c r="L86" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5884,10 +5881,10 @@
         <v>143</v>
       </c>
       <c r="G87" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H87" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I87" t="s">
         <v>134</v>
@@ -5896,7 +5893,7 @@
         <v>2002</v>
       </c>
       <c r="L87" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5919,10 +5916,10 @@
         <v>143</v>
       </c>
       <c r="G88" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H88" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="I88" t="s">
         <v>134</v>
@@ -5931,7 +5928,7 @@
         <v>1913</v>
       </c>
       <c r="L88" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -5954,10 +5951,10 @@
         <v>143</v>
       </c>
       <c r="G89" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H89" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I89" t="s">
         <v>134</v>
@@ -5966,7 +5963,7 @@
         <v>1998</v>
       </c>
       <c r="L89" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5989,10 +5986,10 @@
         <v>143</v>
       </c>
       <c r="G90" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H90" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I90" t="s">
         <v>134</v>
@@ -6001,7 +5998,7 @@
         <v>2000</v>
       </c>
       <c r="L90" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -6024,10 +6021,10 @@
         <v>143</v>
       </c>
       <c r="G91" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H91" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I91" t="s">
         <v>134</v>
@@ -6036,7 +6033,7 @@
         <v>1938</v>
       </c>
       <c r="L91" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -6059,10 +6056,10 @@
         <v>143</v>
       </c>
       <c r="G92" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H92" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I92" t="s">
         <v>134</v>
@@ -6071,7 +6068,7 @@
         <v>1967</v>
       </c>
       <c r="L92" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -6094,10 +6091,10 @@
         <v>143</v>
       </c>
       <c r="G93" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H93" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I93" t="s">
         <v>134</v>
@@ -6106,7 +6103,7 @@
         <v>1965</v>
       </c>
       <c r="L93" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -6129,10 +6126,10 @@
         <v>143</v>
       </c>
       <c r="G94" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H94" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I94" t="s">
         <v>134</v>
@@ -6141,7 +6138,7 @@
         <v>2006</v>
       </c>
       <c r="L94" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -6164,10 +6161,10 @@
         <v>143</v>
       </c>
       <c r="G95" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H95" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="I95" t="s">
         <v>134</v>
@@ -6176,7 +6173,7 @@
         <v>2018</v>
       </c>
       <c r="L95" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -6199,10 +6196,10 @@
         <v>143</v>
       </c>
       <c r="G96" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H96" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I96" t="s">
         <v>134</v>
@@ -6211,7 +6208,7 @@
         <v>2013</v>
       </c>
       <c r="L96" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -6234,10 +6231,10 @@
         <v>143</v>
       </c>
       <c r="G97" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H97" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I97" t="s">
         <v>134</v>
@@ -6246,7 +6243,7 @@
         <v>2010</v>
       </c>
       <c r="L97" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -6269,10 +6266,10 @@
         <v>143</v>
       </c>
       <c r="G98" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H98" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I98" t="s">
         <v>134</v>
@@ -6281,7 +6278,7 @@
         <v>1932</v>
       </c>
       <c r="L98" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -6304,10 +6301,10 @@
         <v>143</v>
       </c>
       <c r="G99" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H99" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="I99" t="s">
         <v>134</v>
@@ -6316,7 +6313,7 @@
         <v>2010</v>
       </c>
       <c r="L99" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -6339,10 +6336,10 @@
         <v>143</v>
       </c>
       <c r="G100" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H100" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I100" t="s">
         <v>134</v>
@@ -6351,7 +6348,7 @@
         <v>1934</v>
       </c>
       <c r="L100" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -6374,10 +6371,10 @@
         <v>143</v>
       </c>
       <c r="G101" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H101" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I101" t="s">
         <v>134</v>
@@ -6386,7 +6383,7 @@
         <v>1937</v>
       </c>
       <c r="L101" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -6409,10 +6406,10 @@
         <v>143</v>
       </c>
       <c r="G102" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H102" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I102" t="s">
         <v>134</v>
@@ -6421,7 +6418,7 @@
         <v>1990</v>
       </c>
       <c r="L102" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -6444,10 +6441,10 @@
         <v>143</v>
       </c>
       <c r="G103" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H103" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I103" t="s">
         <v>134</v>
@@ -6456,7 +6453,7 @@
         <v>1911</v>
       </c>
       <c r="L103" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -6479,10 +6476,10 @@
         <v>143</v>
       </c>
       <c r="G104" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H104" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I104" t="s">
         <v>134</v>
@@ -6491,7 +6488,7 @@
         <v>1954</v>
       </c>
       <c r="L104" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -6514,10 +6511,10 @@
         <v>143</v>
       </c>
       <c r="G105" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H105" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I105" t="s">
         <v>134</v>
@@ -6526,7 +6523,7 @@
         <v>1998</v>
       </c>
       <c r="L105" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -6549,10 +6546,10 @@
         <v>143</v>
       </c>
       <c r="G106" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H106" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="I106" t="s">
         <v>134</v>
@@ -6561,7 +6558,7 @@
         <v>2018</v>
       </c>
       <c r="L106" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -6584,10 +6581,10 @@
         <v>143</v>
       </c>
       <c r="G107" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H107" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I107" t="s">
         <v>134</v>
@@ -6596,7 +6593,7 @@
         <v>1924</v>
       </c>
       <c r="L107" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -6619,10 +6616,10 @@
         <v>143</v>
       </c>
       <c r="G108" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H108" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I108" t="s">
         <v>134</v>
@@ -6631,7 +6628,7 @@
         <v>1945</v>
       </c>
       <c r="L108" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -6654,10 +6651,10 @@
         <v>143</v>
       </c>
       <c r="G109" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H109" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="I109" t="s">
         <v>134</v>
@@ -6666,7 +6663,7 @@
         <v>1913</v>
       </c>
       <c r="L109" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -6689,10 +6686,10 @@
         <v>143</v>
       </c>
       <c r="G110" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H110" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="I110" t="s">
         <v>134</v>
@@ -6701,7 +6698,7 @@
         <v>1971</v>
       </c>
       <c r="L110" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6724,10 +6721,10 @@
         <v>143</v>
       </c>
       <c r="G111" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H111" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="I111" t="s">
         <v>134</v>
@@ -6736,7 +6733,7 @@
         <v>1996</v>
       </c>
       <c r="L111" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -6759,10 +6756,10 @@
         <v>143</v>
       </c>
       <c r="G112" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H112" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="I112" t="s">
         <v>134</v>
@@ -6771,7 +6768,7 @@
         <v>2008</v>
       </c>
       <c r="L112" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6794,10 +6791,10 @@
         <v>143</v>
       </c>
       <c r="G113" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H113" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I113" t="s">
         <v>134</v>
@@ -6806,7 +6803,7 @@
         <v>2016</v>
       </c>
       <c r="L113" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6829,10 +6826,10 @@
         <v>143</v>
       </c>
       <c r="G114" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H114" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I114" t="s">
         <v>134</v>
@@ -6841,7 +6838,7 @@
         <v>1919</v>
       </c>
       <c r="L114" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6864,10 +6861,10 @@
         <v>143</v>
       </c>
       <c r="G115" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H115" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I115" t="s">
         <v>134</v>
@@ -6876,7 +6873,7 @@
         <v>1914</v>
       </c>
       <c r="L115" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6899,10 +6896,10 @@
         <v>143</v>
       </c>
       <c r="G116" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H116" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="I116" t="s">
         <v>134</v>
@@ -6911,7 +6908,7 @@
         <v>1967</v>
       </c>
       <c r="L116" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -6934,10 +6931,10 @@
         <v>143</v>
       </c>
       <c r="G117" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H117" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="I117" t="s">
         <v>134</v>
@@ -6946,7 +6943,7 @@
         <v>1933</v>
       </c>
       <c r="L117" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6969,10 +6966,10 @@
         <v>143</v>
       </c>
       <c r="G118" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H118" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="I118" t="s">
         <v>134</v>
@@ -6981,7 +6978,7 @@
         <v>1918</v>
       </c>
       <c r="L118" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -7004,10 +7001,10 @@
         <v>143</v>
       </c>
       <c r="G119" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H119" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I119" t="s">
         <v>134</v>
@@ -7016,7 +7013,7 @@
         <v>1909</v>
       </c>
       <c r="L119" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -7039,10 +7036,10 @@
         <v>143</v>
       </c>
       <c r="G120" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H120" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I120" t="s">
         <v>134</v>
@@ -7051,7 +7048,7 @@
         <v>1930</v>
       </c>
       <c r="L120" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -7074,10 +7071,10 @@
         <v>143</v>
       </c>
       <c r="G121" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H121" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I121" t="s">
         <v>134</v>
@@ -7086,7 +7083,7 @@
         <v>1991</v>
       </c>
       <c r="L121" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -7109,10 +7106,10 @@
         <v>143</v>
       </c>
       <c r="G122" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H122" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="I122" t="s">
         <v>134</v>
@@ -7121,7 +7118,7 @@
         <v>1989</v>
       </c>
       <c r="L122" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -7144,10 +7141,10 @@
         <v>143</v>
       </c>
       <c r="G123" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H123" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I123" t="s">
         <v>134</v>
@@ -7156,7 +7153,7 @@
         <v>1947</v>
       </c>
       <c r="L123" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -7179,10 +7176,10 @@
         <v>143</v>
       </c>
       <c r="G124" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H124" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="I124" t="s">
         <v>134</v>
@@ -7191,7 +7188,7 @@
         <v>1925</v>
       </c>
       <c r="L124" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -7214,10 +7211,10 @@
         <v>143</v>
       </c>
       <c r="G125" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H125" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I125" t="s">
         <v>134</v>
@@ -7226,7 +7223,7 @@
         <v>1973</v>
       </c>
       <c r="L125" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -7254,19 +7251,19 @@
   <sheetData>
     <row r="4" spans="6:17" ht="38.25">
       <c r="H4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="K4" t="s">
-        <v>704</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>719</v>
+        <v>701</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="5" spans="6:17" ht="66">
@@ -7280,7 +7277,7 @@
         <v>278</v>
       </c>
       <c r="K5" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>162</v>
@@ -7291,8 +7288,8 @@
       <c r="P5" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="Q5" s="9" t="s">
-        <v>712</v>
+      <c r="Q5" s="8" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="6:17">
@@ -7306,7 +7303,7 @@
         <v>279</v>
       </c>
       <c r="K6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="6:17">
@@ -7321,11 +7318,10 @@
         <v>280</v>
       </c>
       <c r="K7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8" spans="6:17">
-      <c r="F8" s="8"/>
       <c r="H8" t="s">
         <v>179</v>
       </c>
@@ -7336,7 +7332,7 @@
         <v>281</v>
       </c>
       <c r="K8" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9" spans="6:17">
@@ -7351,7 +7347,7 @@
         <v>281</v>
       </c>
       <c r="K9" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" spans="6:17">
@@ -7366,11 +7362,10 @@
         <v>282</v>
       </c>
       <c r="K10" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="6:17">
-      <c r="F11" s="8"/>
       <c r="H11" t="s">
         <v>168</v>
       </c>
@@ -7381,7 +7376,7 @@
         <v>278</v>
       </c>
       <c r="K11" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12" spans="6:17">
@@ -7396,11 +7391,10 @@
         <v>283</v>
       </c>
       <c r="K12" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="13" spans="6:17">
-      <c r="F13" s="8"/>
       <c r="H13" t="s">
         <v>169</v>
       </c>
@@ -7411,11 +7405,10 @@
         <v>280</v>
       </c>
       <c r="K13" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="14" spans="6:17">
-      <c r="F14" s="8"/>
       <c r="H14" t="s">
         <v>170</v>
       </c>
@@ -7426,7 +7419,7 @@
         <v>280</v>
       </c>
       <c r="K14" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="15" spans="6:17">
@@ -7441,7 +7434,7 @@
         <v>284</v>
       </c>
       <c r="K15" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="6:17">
@@ -7456,7 +7449,7 @@
         <v>285</v>
       </c>
       <c r="K16" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="4:11">
@@ -7471,7 +7464,7 @@
         <v>285</v>
       </c>
       <c r="K17" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" spans="4:11">
@@ -7486,7 +7479,7 @@
         <v>285</v>
       </c>
       <c r="K18" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="4:11">
@@ -7501,7 +7494,7 @@
         <v>281</v>
       </c>
       <c r="K19" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="20" spans="4:11">
@@ -7516,11 +7509,10 @@
         <v>281</v>
       </c>
       <c r="K20" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="4:11">
-      <c r="F21" s="8"/>
       <c r="H21" t="s">
         <v>177</v>
       </c>
@@ -7531,11 +7523,10 @@
         <v>280</v>
       </c>
       <c r="K21" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="22" spans="4:11">
-      <c r="F22" s="8"/>
       <c r="H22" t="s">
         <v>178</v>
       </c>
@@ -7546,30 +7537,21 @@
         <v>279</v>
       </c>
       <c r="K22" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11">
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="4:11">
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="4:11">
-      <c r="F25" s="8"/>
+        <v>709</v>
+      </c>
     </row>
     <row r="27" spans="4:11">
       <c r="D27" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E27" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G27" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="28" spans="4:11">
@@ -7583,7 +7565,7 @@
         <v>353</v>
       </c>
       <c r="G28" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="4:11">
@@ -7597,7 +7579,7 @@
         <v>278</v>
       </c>
       <c r="G29" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="30" spans="4:11">
@@ -7611,7 +7593,7 @@
         <v>282</v>
       </c>
       <c r="G30" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="31" spans="4:11">
@@ -7625,7 +7607,7 @@
         <v>281</v>
       </c>
       <c r="G31" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="32" spans="4:11">
@@ -7639,7 +7621,7 @@
         <v>282</v>
       </c>
       <c r="G32" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -7653,7 +7635,7 @@
         <v>284</v>
       </c>
       <c r="G33" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="34" spans="2:7">
@@ -7667,7 +7649,7 @@
         <v>282</v>
       </c>
       <c r="G34" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -7681,7 +7663,7 @@
         <v>276</v>
       </c>
       <c r="G35" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="36" spans="2:7">
@@ -7695,7 +7677,7 @@
         <v>347</v>
       </c>
       <c r="G36" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="37" spans="2:7">
@@ -7709,7 +7691,7 @@
         <v>277</v>
       </c>
       <c r="G37" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="38" spans="2:7">
@@ -7723,7 +7705,7 @@
         <v>281</v>
       </c>
       <c r="G38" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -7737,7 +7719,7 @@
         <v>281</v>
       </c>
       <c r="G39" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -7751,7 +7733,7 @@
         <v>281</v>
       </c>
       <c r="G40" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -7765,7 +7747,7 @@
         <v>281</v>
       </c>
       <c r="G41" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="42" spans="2:7">
@@ -7779,7 +7761,7 @@
         <v>276</v>
       </c>
       <c r="G42" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="43" spans="2:7">
@@ -7793,7 +7775,7 @@
         <v>344</v>
       </c>
       <c r="G43" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="44" spans="2:7">
@@ -7807,7 +7789,7 @@
         <v>281</v>
       </c>
       <c r="G44" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="45" spans="2:7">
@@ -7821,10 +7803,10 @@
         <v>281</v>
       </c>
       <c r="G45" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="33">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="16.5">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
@@ -7837,10 +7819,10 @@
         <v>355</v>
       </c>
       <c r="G46" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="33">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="16.5">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
@@ -7853,7 +7835,7 @@
         <v>277</v>
       </c>
       <c r="G47" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="16.5">
@@ -7870,23 +7852,23 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="2:7" ht="33">
+    <row r="50" spans="2:7" ht="16.5">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G50" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="33">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="16.5">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
@@ -7899,10 +7881,10 @@
         <v>346</v>
       </c>
       <c r="G51" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="82.5">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="33">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
@@ -7915,10 +7897,10 @@
         <v>277</v>
       </c>
       <c r="G52" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="66">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="16.5">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
@@ -7931,10 +7913,10 @@
         <v>278</v>
       </c>
       <c r="G53" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="49.5">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="16.5">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5" t="s">
@@ -7947,10 +7929,10 @@
         <v>359</v>
       </c>
       <c r="G54" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="66">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="33">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5" t="s">
@@ -7963,7 +7945,7 @@
         <v>285</v>
       </c>
       <c r="G55" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="33">
@@ -7979,7 +7961,7 @@
         <v>352</v>
       </c>
       <c r="G56" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="57" spans="2:7">
@@ -7993,7 +7975,7 @@
         <v>347</v>
       </c>
       <c r="G57" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="58" spans="2:7">
@@ -8007,7 +7989,7 @@
         <v>281</v>
       </c>
       <c r="G58" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="59" spans="2:7">
@@ -8021,7 +8003,7 @@
         <v>284</v>
       </c>
       <c r="G59" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="60" spans="2:7">
@@ -8035,7 +8017,7 @@
         <v>282</v>
       </c>
       <c r="G60" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="61" spans="2:7">
@@ -8049,7 +8031,7 @@
         <v>284</v>
       </c>
       <c r="G61" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="62" spans="2:7">
@@ -8063,7 +8045,7 @@
         <v>276</v>
       </c>
       <c r="G62" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="63" spans="2:7">
@@ -8077,7 +8059,7 @@
         <v>355</v>
       </c>
       <c r="G63" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="64" spans="2:7">
@@ -8091,7 +8073,7 @@
         <v>344</v>
       </c>
       <c r="G64" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="65" spans="4:7">
@@ -8105,7 +8087,7 @@
         <v>354</v>
       </c>
       <c r="G65" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="66" spans="4:7">
@@ -8119,7 +8101,7 @@
         <v>281</v>
       </c>
       <c r="G66" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="67" spans="4:7">
@@ -8133,7 +8115,7 @@
         <v>285</v>
       </c>
       <c r="G67" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="68" spans="4:7">
@@ -8147,7 +8129,7 @@
         <v>278</v>
       </c>
       <c r="G68" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="69" spans="4:7">
@@ -8161,7 +8143,7 @@
         <v>280</v>
       </c>
       <c r="G69" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="70" spans="4:7">
@@ -8175,26 +8157,26 @@
         <v>285</v>
       </c>
       <c r="G70" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="73" spans="4:7">
       <c r="D73" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E73" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F73" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G73" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="74" spans="4:7">
       <c r="D74" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E74" t="s">
         <v>314</v>
@@ -8203,12 +8185,12 @@
         <v>281</v>
       </c>
       <c r="G74" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="75" spans="4:7">
       <c r="D75" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E75" t="s">
         <v>315</v>
@@ -8217,7 +8199,7 @@
         <v>344</v>
       </c>
       <c r="G75" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="76" spans="4:7">
@@ -8231,12 +8213,12 @@
         <v>345</v>
       </c>
       <c r="G76" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="77" spans="4:7">
       <c r="D77" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E77" t="s">
         <v>304</v>
@@ -8245,7 +8227,7 @@
         <v>346</v>
       </c>
       <c r="G77" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="78" spans="4:7">
@@ -8259,7 +8241,7 @@
         <v>277</v>
       </c>
       <c r="G78" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="79" spans="4:7">
@@ -8273,12 +8255,12 @@
         <v>347</v>
       </c>
       <c r="G79" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="80" spans="4:7">
       <c r="D80" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E80" t="s">
         <v>22</v>
@@ -8287,7 +8269,7 @@
         <v>284</v>
       </c>
       <c r="G80" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="81" spans="4:7">
@@ -8301,12 +8283,12 @@
         <v>280</v>
       </c>
       <c r="G81" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="82" spans="4:7">
       <c r="D82" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E82" t="s">
         <v>317</v>
@@ -8315,12 +8297,12 @@
         <v>285</v>
       </c>
       <c r="G82" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="83" spans="4:7">
       <c r="D83" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E83" t="s">
         <v>318</v>
@@ -8329,7 +8311,7 @@
         <v>282</v>
       </c>
       <c r="G83" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="84" spans="4:7">
@@ -8343,7 +8325,7 @@
         <v>285</v>
       </c>
       <c r="G84" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="85" spans="4:7">
@@ -8357,7 +8339,7 @@
         <v>348</v>
       </c>
       <c r="G85" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="86" spans="4:7">
@@ -8371,12 +8353,12 @@
         <v>344</v>
       </c>
       <c r="G86" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="87" spans="4:7">
       <c r="D87" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E87" t="s">
         <v>321</v>
@@ -8385,7 +8367,7 @@
         <v>349</v>
       </c>
       <c r="G87" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="88" spans="4:7">
@@ -8399,7 +8381,7 @@
         <v>276</v>
       </c>
       <c r="G88" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="89" spans="4:7">
@@ -8413,7 +8395,7 @@
         <v>282</v>
       </c>
       <c r="G89" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="90" spans="4:7">
@@ -8427,12 +8409,12 @@
         <v>350</v>
       </c>
       <c r="G90" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="91" spans="4:7">
       <c r="D91" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E91" t="s">
         <v>322</v>
@@ -8441,12 +8423,12 @@
         <v>277</v>
       </c>
       <c r="G91" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="92" spans="4:7">
       <c r="D92" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E92" t="s">
         <v>323</v>
@@ -8455,12 +8437,12 @@
         <v>347</v>
       </c>
       <c r="G92" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="93" spans="4:7">
       <c r="D93" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E93" t="s">
         <v>324</v>
@@ -8469,7 +8451,7 @@
         <v>278</v>
       </c>
       <c r="G93" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="94" spans="4:7">
@@ -8483,7 +8465,7 @@
         <v>276</v>
       </c>
       <c r="G94" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="95" spans="4:7">
@@ -8497,7 +8479,7 @@
         <v>345</v>
       </c>
       <c r="G95" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="96" spans="4:7">
@@ -8511,7 +8493,7 @@
         <v>345</v>
       </c>
       <c r="G96" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="97" spans="4:7">
@@ -8525,7 +8507,7 @@
         <v>282</v>
       </c>
       <c r="G97" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="98" spans="4:7">
@@ -8539,7 +8521,7 @@
         <v>351</v>
       </c>
       <c r="G98" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="99" spans="4:7">
@@ -8553,7 +8535,7 @@
         <v>284</v>
       </c>
       <c r="G99" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="100" spans="4:7">
@@ -8567,7 +8549,7 @@
         <v>281</v>
       </c>
       <c r="G100" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="101" spans="4:7">
@@ -8581,7 +8563,7 @@
         <v>278</v>
       </c>
       <c r="G101" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="102" spans="4:7">
@@ -8595,7 +8577,7 @@
         <v>277</v>
       </c>
       <c r="G102" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="103" spans="4:7">
@@ -8609,7 +8591,7 @@
         <v>352</v>
       </c>
       <c r="G103" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="104" spans="4:7">
@@ -8623,7 +8605,7 @@
         <v>279</v>
       </c>
       <c r="G104" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="105" spans="4:7">
@@ -8637,7 +8619,7 @@
         <v>279</v>
       </c>
       <c r="G105" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="106" spans="4:7">
@@ -8651,7 +8633,7 @@
         <v>279</v>
       </c>
       <c r="G106" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="107" spans="4:7">
@@ -8665,7 +8647,7 @@
         <v>353</v>
       </c>
       <c r="G107" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="108" spans="4:7">
@@ -8679,7 +8661,7 @@
         <v>353</v>
       </c>
       <c r="G108" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="109" spans="4:7">
@@ -8693,7 +8675,7 @@
         <v>284</v>
       </c>
       <c r="G109" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="110" spans="4:7">
@@ -8707,7 +8689,7 @@
         <v>354</v>
       </c>
       <c r="G110" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="111" spans="4:7">
@@ -8721,7 +8703,7 @@
         <v>276</v>
       </c>
       <c r="G111" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="112" spans="4:7">
@@ -8735,7 +8717,7 @@
         <v>283</v>
       </c>
       <c r="G112" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="113" spans="4:7">
@@ -8749,7 +8731,7 @@
         <v>354</v>
       </c>
       <c r="G113" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="114" spans="4:7">
@@ -8763,7 +8745,7 @@
         <v>280</v>
       </c>
       <c r="G114" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="115" spans="4:7">
@@ -8777,7 +8759,7 @@
         <v>285</v>
       </c>
       <c r="G115" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="116" spans="4:7">
@@ -8791,7 +8773,7 @@
         <v>278</v>
       </c>
       <c r="G116" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="117" spans="4:7">
@@ -8805,7 +8787,7 @@
         <v>355</v>
       </c>
       <c r="G117" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="118" spans="4:7">
@@ -8819,7 +8801,7 @@
         <v>356</v>
       </c>
       <c r="G118" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="119" spans="4:7">
@@ -8833,7 +8815,7 @@
         <v>280</v>
       </c>
       <c r="G119" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="120" spans="4:7">
@@ -8847,7 +8829,7 @@
         <v>346</v>
       </c>
       <c r="G120" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="121" spans="4:7">
@@ -8861,7 +8843,7 @@
         <v>278</v>
       </c>
       <c r="G121" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="122" spans="4:7">
@@ -8875,7 +8857,7 @@
         <v>353</v>
       </c>
       <c r="G122" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="123" spans="4:7">
@@ -8889,7 +8871,7 @@
         <v>348</v>
       </c>
       <c r="G123" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="124" spans="4:7">
@@ -8903,7 +8885,7 @@
         <v>357</v>
       </c>
       <c r="G124" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="125" spans="4:7">
@@ -8917,7 +8899,7 @@
         <v>355</v>
       </c>
       <c r="G125" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="126" spans="4:7">
@@ -8931,7 +8913,7 @@
         <v>351</v>
       </c>
       <c r="G126" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="127" spans="4:7">
@@ -8945,7 +8927,7 @@
         <v>346</v>
       </c>
       <c r="G127" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="128" spans="4:7">
@@ -8959,7 +8941,7 @@
         <v>281</v>
       </c>
       <c r="G128" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="129" spans="4:7">
@@ -8973,7 +8955,7 @@
         <v>281</v>
       </c>
       <c r="G129" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="130" spans="4:7">
@@ -8987,7 +8969,7 @@
         <v>358</v>
       </c>
       <c r="G130" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="131" spans="4:7">
@@ -9001,7 +8983,7 @@
         <v>352</v>
       </c>
       <c r="G131" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="132" spans="4:7">
@@ -9015,7 +8997,7 @@
         <v>357</v>
       </c>
       <c r="G132" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="133" spans="4:7">
@@ -9029,7 +9011,7 @@
         <v>359</v>
       </c>
       <c r="G133" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="134" spans="4:7">
@@ -9043,7 +9025,7 @@
         <v>349</v>
       </c>
       <c r="G134" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="135" spans="4:7">
@@ -9057,7 +9039,7 @@
         <v>360</v>
       </c>
       <c r="G135" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="136" spans="4:7">
@@ -9071,7 +9053,7 @@
         <v>359</v>
       </c>
       <c r="G136" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="137" spans="4:7">
@@ -9085,7 +9067,7 @@
         <v>283</v>
       </c>
       <c r="G137" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/CLUBLE - dados dos clubes.xlsx
+++ b/src/data/CLUBLE - dados dos clubes.xlsx
@@ -1,24 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\cluble-game\src\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E477D70-E894-40E0-8415-B15B99E45806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" tabRatio="498" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Plan1"/>
-    <sheet r:id="rId2" sheetId="2" name="grafico estados"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="grafico estados" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">'grafico estados'!$A$1:$B$30</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="801">
   <si>
     <t>Estados</t>
   </si>
@@ -2418,13 +2437,15 @@
   </si>
   <si>
     <t>Zé Roberto</t>
+  </si>
+  <si>
+    <t>apiFootballId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2474,50 +2495,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2528,10 +2543,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2569,71 +2584,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2661,7 +2676,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -2684,11 +2699,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -2697,13 +2712,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2713,7 +2728,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2722,7 +2737,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2731,7 +2746,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2739,10 +2754,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2807,5155 +2822,5532 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="44.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="27.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="34.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="4.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4">
+    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3">
+        <v>134</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="10">
+      <c r="L2" s="7">
         <v>1924</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4">
+    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3">
+        <v>144</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="7">
         <v>1937</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4">
+    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3">
+        <v>162</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="7">
         <v>1908</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4">
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3">
+        <v>118</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="7">
         <v>1931</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4">
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3">
+        <v>120</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="7">
         <v>1904</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4">
+    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3">
+        <v>794</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="7">
         <v>1928</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4">
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3">
+        <v>131</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="10">
+      <c r="L8" s="7">
         <v>1910</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4">
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="3">
+        <v>140</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="10">
+      <c r="L9" s="7">
         <v>1947</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="M9" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4">
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3">
+        <v>135</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="10">
+      <c r="L10" s="7">
         <v>1921</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" t="s">
         <v>105</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4">
+    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="3">
+        <v>1193</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="10">
+      <c r="L11" s="7">
         <v>2001</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" t="s">
         <v>111</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="4">
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="3">
+        <v>127</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="10">
+      <c r="L12" s="7">
         <v>1895</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" t="s">
         <v>117</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4">
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3">
+        <v>124</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" t="s">
         <v>121</v>
       </c>
-      <c r="K13" s="10">
+      <c r="L13" s="7">
         <v>1902</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="M13" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4">
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="3">
+        <v>154</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" t="s">
         <v>126</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="10">
+      <c r="L14" s="7">
         <v>1918</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" t="s">
         <v>127</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4">
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="3">
+        <v>130</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" t="s">
         <v>133</v>
       </c>
-      <c r="K15" s="10">
+      <c r="L15" s="7">
         <v>1903</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" t="s">
         <v>134</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4">
+    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="3">
+        <v>119</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>137</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" t="s">
         <v>137</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="10">
+      <c r="L16" s="7">
         <v>1909</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" t="s">
         <v>139</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="4">
+    <row r="17" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="3">
+        <v>152</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>144</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" t="s">
         <v>144</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" t="s">
         <v>145</v>
       </c>
-      <c r="K17" s="10">
+      <c r="L17" s="7">
         <v>1913</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="M17" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4">
+    <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="3">
+        <v>121</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" t="s">
         <v>150</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" t="s">
         <v>145</v>
       </c>
-      <c r="K18" s="10">
+      <c r="L18" s="7">
         <v>1914</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" t="s">
         <v>151</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="4">
+    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="3">
+        <v>126</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>154</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" t="s">
         <v>155</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" t="s">
         <v>48</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" t="s">
         <v>156</v>
       </c>
-      <c r="K19" s="10">
+      <c r="L19" s="7">
         <v>1930</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" t="s">
         <v>157</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4">
+    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="3">
+        <v>133</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" t="s">
         <v>160</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>161</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" t="s">
         <v>162</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="10">
+      <c r="L20" s="7">
         <v>1898</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" t="s">
         <v>163</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="4">
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="3">
+        <v>136</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>167</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" t="s">
         <v>168</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="10">
+      <c r="L21" s="7">
         <v>1899</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="M21" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4">
+    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="3">
+        <v>10862</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" t="s">
         <v>172</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" t="s">
         <v>174</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" t="s">
         <v>175</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" t="s">
         <v>176</v>
       </c>
-      <c r="K22" s="10">
+      <c r="L22" s="7">
         <v>2019</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" t="s">
         <v>177</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="N22" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="4">
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="3">
+        <v>125</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" t="s">
         <v>182</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" t="s">
         <v>175</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" t="s">
         <v>183</v>
       </c>
-      <c r="K23" s="10">
+      <c r="L23" s="7">
         <v>1912</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" t="s">
         <v>184</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="N23" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="4">
+    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="3">
+        <v>145</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>189</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" t="s">
         <v>190</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" t="s">
         <v>175</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="10">
+      <c r="L24" s="7">
         <v>1923</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" t="s">
         <v>191</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="N24" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="4">
+    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="3">
+        <v>2618</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>195</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" t="s">
         <v>196</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" t="s">
         <v>175</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" t="s">
         <v>197</v>
       </c>
-      <c r="K25" s="10">
+      <c r="L25" s="7">
         <v>1918</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="M25" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="N25" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="4">
+    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="3">
+        <v>1211</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" t="s">
         <v>201</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" t="s">
         <v>200</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>202</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" t="s">
         <v>203</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" t="s">
         <v>175</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" t="s">
         <v>204</v>
       </c>
-      <c r="K26" s="10">
+      <c r="L26" s="7">
         <v>1987</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" t="s">
         <v>205</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="N26" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="4">
+    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="3">
+        <v>129</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" t="s">
         <v>208</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>209</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" t="s">
         <v>210</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" t="s">
         <v>175</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" t="s">
         <v>62</v>
       </c>
-      <c r="K27" s="10">
+      <c r="L27" s="7">
         <v>1914</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="M27" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="N27" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="4">
+    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="3">
+        <v>132</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" t="s">
         <v>214</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" t="s">
         <v>215</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
         <v>216</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" t="s">
         <v>216</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" t="s">
         <v>175</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="10">
+      <c r="L28" s="7">
         <v>1973</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="M28" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="N28" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="4">
+    <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="3">
+        <v>147</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
         <v>221</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" t="s">
         <v>222</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" t="s">
         <v>175</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" t="s">
         <v>145</v>
       </c>
-      <c r="K29" s="10">
+      <c r="L29" s="7">
         <v>1909</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" t="s">
         <v>223</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="N29" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="4">
+    <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="3">
+        <v>146</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" t="s">
         <v>225</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" t="s">
         <v>226</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
         <v>227</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" t="s">
         <v>228</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" t="s">
         <v>175</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" t="s">
         <v>138</v>
       </c>
-      <c r="K30" s="10">
+      <c r="L30" s="7">
         <v>1912</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="M30" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="N30" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="4">
+    <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="3">
+        <v>151</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" t="s">
         <v>231</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
         <v>232</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" t="s">
         <v>233</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" t="s">
         <v>175</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" t="s">
         <v>145</v>
       </c>
-      <c r="K31" s="10">
+      <c r="L31" s="7">
         <v>1943</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" t="s">
         <v>234</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="N31" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="4">
+    <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="3">
+        <v>138</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" t="s">
         <v>237</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" t="s">
         <v>238</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
         <v>239</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" t="s">
         <v>240</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" t="s">
         <v>175</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" t="s">
         <v>145</v>
       </c>
-      <c r="K32" s="10">
+      <c r="L32" s="7">
         <v>1911</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" t="s">
         <v>241</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" t="s">
         <v>218</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="4">
+    <row r="33" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="3">
+        <v>7779</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" t="s">
         <v>243</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" t="s">
         <v>244</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
         <v>245</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" t="s">
         <v>246</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" t="s">
         <v>175</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" t="s">
         <v>247</v>
       </c>
-      <c r="K33" s="10">
+      <c r="L33" s="7">
         <v>1947</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="M33" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="4">
+    <row r="34" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="3">
+        <v>7848</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" t="s">
         <v>249</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
         <v>251</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" t="s">
         <v>252</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" t="s">
         <v>175</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" t="s">
         <v>253</v>
       </c>
-      <c r="K34" s="10">
+      <c r="L34" s="7">
         <v>1925</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="M34" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="4">
+    <row r="35" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="3">
+        <v>7834</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" t="s">
         <v>256</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" t="s">
         <v>257</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
         <v>258</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" t="s">
         <v>259</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" t="s">
         <v>175</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" t="s">
         <v>176</v>
       </c>
-      <c r="K35" s="10">
+      <c r="L35" s="7">
         <v>2010</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="M35" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="4">
+    <row r="36" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="3">
+        <v>1223</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" t="s">
         <v>262</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
         <v>263</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" t="s">
         <v>264</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" t="s">
         <v>175</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" t="s">
         <v>62</v>
       </c>
-      <c r="K36" s="10">
+      <c r="L36" s="7">
         <v>1912</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="M36" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="N36" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="4">
+    <row r="37" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="3">
+        <v>149</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" t="s">
         <v>268</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" t="s">
         <v>269</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
         <v>270</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" t="s">
         <v>271</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" t="s">
         <v>175</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" t="s">
         <v>104</v>
       </c>
-      <c r="K37" s="10">
+      <c r="L37" s="7">
         <v>1914</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="M37" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" t="s">
         <v>273</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="4">
+    <row r="38" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="3">
+        <v>139</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" t="s">
         <v>275</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" t="s">
         <v>238</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
         <v>276</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" t="s">
         <v>277</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" t="s">
         <v>175</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" t="s">
         <v>62</v>
       </c>
-      <c r="K38" s="10">
+      <c r="L38" s="7">
         <v>1900</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="M38" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" t="s">
         <v>279</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="4">
+    <row r="39" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="3">
+        <v>128</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" t="s">
         <v>281</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" t="s">
         <v>280</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
         <v>282</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" t="s">
         <v>283</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" t="s">
         <v>175</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" t="s">
         <v>91</v>
       </c>
-      <c r="K39" s="10">
+      <c r="L39" s="7">
         <v>1912</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" t="s">
         <v>284</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" t="s">
         <v>285</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="4">
+    <row r="40" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="3">
+        <v>123</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" t="s">
         <v>287</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" t="s">
         <v>288</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
         <v>289</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" t="s">
         <v>290</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" t="s">
         <v>175</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" t="s">
         <v>247</v>
       </c>
-      <c r="K40" s="10">
+      <c r="L40" s="7">
         <v>1905</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" t="s">
         <v>291</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="4">
+    <row r="41" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="3">
+        <v>142</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" t="s">
         <v>293</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
         <v>294</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" t="s">
         <v>295</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" t="s">
         <v>175</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" t="s">
         <v>138</v>
       </c>
-      <c r="K41" s="10">
+      <c r="L41" s="7">
         <v>1943</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" t="s">
         <v>234</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="4">
+    <row r="42" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="3">
+        <v>754</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" t="s">
         <v>297</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" t="s">
         <v>298</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
         <v>299</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" t="s">
         <v>300</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" t="s">
         <v>301</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" t="s">
         <v>62</v>
       </c>
-      <c r="K42" s="10">
+      <c r="L42" s="7">
         <v>1915</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" t="s">
         <v>302</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" t="s">
         <v>303</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="4">
+    <row r="43" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="3">
+        <v>1202</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" t="s">
         <v>305</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
         <v>307</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" t="s">
         <v>308</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" t="s">
         <v>301</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" t="s">
         <v>104</v>
       </c>
-      <c r="K43" s="10">
+      <c r="L43" s="7">
         <v>1985</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" t="s">
         <v>309</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" t="s">
         <v>310</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="4">
+    <row r="44" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="3">
+        <v>13975</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" t="s">
         <v>311</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" t="s">
         <v>312</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
         <v>313</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" t="s">
         <v>314</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" t="s">
         <v>301</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" t="s">
         <v>62</v>
       </c>
-      <c r="K44" s="10">
+      <c r="L44" s="7">
         <v>1933</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" t="s">
         <v>315</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="4">
+    <row r="45" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="3">
+        <v>1197</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" t="s">
         <v>193</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" t="s">
         <v>317</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
         <v>318</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" t="s">
         <v>319</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" t="s">
         <v>301</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" t="s">
         <v>62</v>
       </c>
-      <c r="K45" s="10">
+      <c r="L45" s="7">
         <v>1931</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" t="s">
         <v>320</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" t="s">
         <v>321</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-      <c r="B46" s="9" t="s">
+    <row r="46" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>7770</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" t="s">
         <v>323</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" t="s">
         <v>143</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
         <v>324</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" t="s">
         <v>325</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" t="s">
         <v>301</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" t="s">
         <v>326</v>
       </c>
-      <c r="K46" s="10">
+      <c r="L46" s="7">
         <v>1935</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="M46" t="s">
         <v>327</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="N46" t="s">
         <v>139</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="4">
+    <row r="47" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="3">
+        <v>7772</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" t="s">
         <v>329</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" t="s">
         <v>330</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
         <v>331</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" t="s">
         <v>332</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" t="s">
         <v>301</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" t="s">
         <v>104</v>
       </c>
-      <c r="K47" s="10">
+      <c r="L47" s="7">
         <v>1936</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" t="s">
         <v>333</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" t="s">
         <v>334</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="4">
+    <row r="48" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="3">
+        <v>150</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" t="s">
         <v>336</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" t="s">
         <v>226</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
         <v>227</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" t="s">
         <v>228</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" t="s">
         <v>301</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" t="s">
         <v>104</v>
       </c>
-      <c r="K48" s="10">
+      <c r="L48" s="7">
         <v>1913</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" t="s">
         <v>337</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" t="s">
         <v>338</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="4">
+    <row r="49" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="3">
+        <v>7826</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" t="s">
         <v>340</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" t="s">
         <v>341</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
         <v>342</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" t="s">
         <v>343</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" t="s">
         <v>301</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" t="s">
         <v>344</v>
       </c>
-      <c r="K49" s="10">
+      <c r="L49" s="7">
         <v>1950</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" t="s">
         <v>345</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" t="s">
         <v>346</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="4">
+    <row r="50" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="3">
+        <v>1195</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" t="s">
         <v>348</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
         <v>349</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" t="s">
         <v>350</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" t="s">
         <v>301</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" t="s">
         <v>351</v>
       </c>
-      <c r="K50" s="10">
+      <c r="L50" s="7">
         <v>1933</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="M50" t="s">
         <v>352</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="N50" t="s">
         <v>353</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="4">
+    <row r="51" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="3">
+        <v>137</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" t="s">
         <v>355</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" t="s">
         <v>188</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
         <v>356</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" t="s">
         <v>357</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" t="s">
         <v>301</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" t="s">
         <v>62</v>
       </c>
-      <c r="K51" s="10">
+      <c r="L51" s="7">
         <v>1921</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="M51" t="s">
         <v>358</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="N51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="4">
+    <row r="52" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="3">
+        <v>7774</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" t="s">
         <v>360</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="E52" t="s">
         <v>124</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
         <v>361</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" t="s">
         <v>362</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" t="s">
         <v>301</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="K52" t="s">
         <v>145</v>
       </c>
-      <c r="K52" s="10">
+      <c r="L52" s="7">
         <v>1954</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="M52" t="s">
         <v>363</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="N52" t="s">
         <v>364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="4">
+    <row r="53" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="3">
+        <v>148</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" t="s">
         <v>366</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" t="s">
         <v>365</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
         <v>367</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" t="s">
         <v>367</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="J53" t="s">
         <v>301</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="K53" t="s">
         <v>104</v>
       </c>
-      <c r="K53" s="10">
+      <c r="L53" s="7">
         <v>1956</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="M53" t="s">
         <v>368</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="N53" t="s">
         <v>353</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="4">
+    <row r="54" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="3">
+        <v>755</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D54" t="s">
         <v>370</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" t="s">
         <v>288</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="F54" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
         <v>371</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" t="s">
         <v>372</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" t="s">
         <v>301</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="K54" t="s">
         <v>138</v>
       </c>
-      <c r="K54" s="10">
+      <c r="L54" s="7">
         <v>1901</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="M54" t="s">
         <v>373</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="N54" t="s">
         <v>374</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="4">
+    <row r="55" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="3">
+        <v>1198</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" t="s">
         <v>376</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" t="s">
         <v>269</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
         <v>377</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" t="s">
         <v>378</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" t="s">
         <v>301</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" t="s">
         <v>379</v>
       </c>
-      <c r="K55" s="10">
+      <c r="L55" s="7">
         <v>1905</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="M55" t="s">
         <v>380</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="N55" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="4">
+    <row r="56" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="3">
+        <v>155</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" t="s">
         <v>382</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" t="s">
         <v>383</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
         <v>209</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" t="s">
         <v>384</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="J56" t="s">
         <v>301</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="K56" t="s">
         <v>385</v>
       </c>
-      <c r="K56" s="10">
+      <c r="L56" s="7">
         <v>1923</v>
       </c>
-      <c r="L56" s="3" t="s">
+      <c r="M56" t="s">
         <v>386</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="N56" t="s">
         <v>353</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="4">
+    <row r="57" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="3">
+        <v>7865</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" t="s">
         <v>388</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" t="s">
         <v>389</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" t="s">
         <v>27</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
         <v>390</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="I57" t="s">
         <v>391</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="J57" t="s">
         <v>301</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="K57" t="s">
         <v>176</v>
       </c>
-      <c r="K57" s="10">
+      <c r="L57" s="7">
         <v>2004</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="M57" t="s">
         <v>392</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="N57" t="s">
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="4">
+    <row r="58" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="3">
+        <v>2232</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" t="s">
         <v>394</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
         <v>395</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" t="s">
         <v>396</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" t="s">
         <v>301</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" t="s">
         <v>104</v>
       </c>
-      <c r="K58" s="10">
+      <c r="L58" s="7">
         <v>1913</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="M58" t="s">
         <v>397</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="N58" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="4">
+    <row r="59" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="3">
+        <v>2227</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" t="s">
         <v>399</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" t="s">
         <v>400</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="F59" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
         <v>401</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="I59" t="s">
         <v>402</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="J59" t="s">
         <v>301</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="K59" t="s">
         <v>138</v>
       </c>
-      <c r="K59" s="10">
+      <c r="L59" s="7">
         <v>1914</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="M59" t="s">
         <v>403</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="N59" t="s">
         <v>404</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="4">
+    <row r="60" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="3">
+        <v>7814</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" t="s">
         <v>406</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" t="s">
         <v>405</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
         <v>407</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="I60" t="s">
         <v>408</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="J60" t="s">
         <v>301</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="K60" t="s">
         <v>176</v>
       </c>
-      <c r="K60" s="10">
+      <c r="L60" s="7">
         <v>1976</v>
       </c>
-      <c r="L60" s="3" t="s">
+      <c r="M60" t="s">
         <v>409</v>
       </c>
-      <c r="M60" s="3" t="s">
+      <c r="N60" t="s">
         <v>410</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="4">
+    <row r="61" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="3">
+        <v>1221</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" t="s">
         <v>412</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="E61" t="s">
         <v>413</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" t="s">
         <v>24</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
         <v>414</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="I61" t="s">
         <v>415</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="J61" t="s">
         <v>301</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="K61" t="s">
         <v>416</v>
       </c>
-      <c r="K61" s="10">
+      <c r="L61" s="7">
         <v>1928</v>
       </c>
-      <c r="L61" s="3" t="s">
+      <c r="M61" t="s">
         <v>417</v>
       </c>
-      <c r="M61" s="3" t="s">
+      <c r="N61" t="s">
         <v>418</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="4">
+    <row r="62" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="3">
+        <v>10018</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" t="s">
         <v>420</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="E62" t="s">
         <v>421</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
         <v>422</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="I62" t="s">
         <v>423</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="J62" t="s">
         <v>424</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="K62" t="s">
         <v>104</v>
       </c>
-      <c r="K62" s="10">
+      <c r="L62" s="7">
         <v>1981</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="M62" t="s">
         <v>425</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="N62" t="s">
         <v>426</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="4">
+    <row r="63" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="3">
+        <v>7879</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" t="s">
         <v>428</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" t="s">
         <v>429</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="F63" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
         <v>430</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="I63" t="s">
         <v>431</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="J63" t="s">
         <v>424</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="K63" t="s">
         <v>104</v>
       </c>
-      <c r="K63" s="10">
+      <c r="L63" s="7">
         <v>1982</v>
       </c>
-      <c r="L63" s="3" t="s">
+      <c r="M63" t="s">
         <v>432</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="N63" t="s">
         <v>433</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="4">
+    <row r="64" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="3">
+        <v>1203</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" t="s">
         <v>435</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" t="s">
         <v>434</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F64" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
         <v>436</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="I64" t="s">
         <v>437</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="J64" t="s">
         <v>424</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="K64" t="s">
         <v>145</v>
       </c>
-      <c r="K64" s="10">
+      <c r="L64" s="7">
         <v>2013</v>
       </c>
-      <c r="L64" s="3" t="s">
+      <c r="M64" t="s">
         <v>438</v>
       </c>
-      <c r="M64" s="3" t="s">
+      <c r="N64" t="s">
         <v>439</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="4">
+    <row r="65" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="3">
+        <v>2223</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" t="s">
         <v>180</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" t="s">
         <v>298</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" t="s">
         <v>21</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
         <v>441</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="I65" t="s">
         <v>442</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="J65" t="s">
         <v>424</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="K65" t="s">
         <v>138</v>
       </c>
-      <c r="K65" s="10">
+      <c r="L65" s="7">
         <v>1915</v>
       </c>
-      <c r="L65" s="3" t="s">
+      <c r="M65" t="s">
         <v>443</v>
       </c>
-      <c r="M65" s="3" t="s">
+      <c r="N65" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="4">
+    <row r="66" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="3">
+        <v>7852</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" t="s">
         <v>445</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" t="s">
         <v>444</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
         <v>446</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="I66" t="s">
         <v>447</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="J66" t="s">
         <v>424</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="K66" t="s">
         <v>448</v>
       </c>
-      <c r="K66" s="10">
+      <c r="L66" s="7">
         <v>1949</v>
       </c>
-      <c r="L66" s="3" t="s">
+      <c r="M66" t="s">
         <v>449</v>
       </c>
-      <c r="M66" s="3" t="s">
+      <c r="N66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="4">
+    <row r="67" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="3">
+        <v>1207</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" t="s">
         <v>451</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="E67" t="s">
         <v>452</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
         <v>453</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="I67" t="s">
         <v>454</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="J67" t="s">
         <v>424</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="K67" t="s">
         <v>62</v>
       </c>
-      <c r="K67" s="10">
+      <c r="L67" s="7">
         <v>1952</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="M67" t="s">
         <v>455</v>
       </c>
-      <c r="M67" s="3" t="s">
+      <c r="N67" t="s">
         <v>266</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="4">
+    <row r="68" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="3">
+        <v>2229</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" t="s">
         <v>457</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="E68" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
         <v>458</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="I68" t="s">
         <v>459</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="J68" t="s">
         <v>424</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="K68" t="s">
         <v>49</v>
       </c>
-      <c r="K68" s="10">
+      <c r="L68" s="7">
         <v>1996</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="M68" t="s">
         <v>460</v>
       </c>
-      <c r="M68" s="3" t="s">
+      <c r="N68" t="s">
         <v>433</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="4">
+    <row r="69" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="3">
+        <v>13107</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" t="s">
         <v>462</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="E69" t="s">
         <v>75</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="F69" t="s">
         <v>20</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
         <v>463</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="I69" t="s">
         <v>464</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="J69" t="s">
         <v>424</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="K69" t="s">
         <v>465</v>
       </c>
-      <c r="K69" s="10">
+      <c r="L69" s="7">
         <v>1985</v>
       </c>
-      <c r="L69" s="3" t="s">
+      <c r="M69" t="s">
         <v>411</v>
       </c>
-      <c r="M69" s="3" t="s">
+      <c r="N69" t="s">
         <v>466</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="4">
+    <row r="70" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="3">
+        <v>2205</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" t="s">
         <v>468</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" t="s">
         <v>469</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="F70" t="s">
         <v>24</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
         <v>470</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="I70" t="s">
         <v>471</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="J70" t="s">
         <v>424</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="K70" t="s">
         <v>145</v>
       </c>
-      <c r="K70" s="10">
+      <c r="L70" s="7">
         <v>1944</v>
       </c>
-      <c r="L70" s="3" t="s">
+      <c r="M70" t="s">
         <v>472</v>
       </c>
-      <c r="M70" s="3" t="s">
+      <c r="N70" t="s">
         <v>235</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="4">
+    <row r="71" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="3">
+        <v>18271</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" t="s">
         <v>474</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" t="s">
         <v>475</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="F71" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
         <v>476</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="I71" t="s">
         <v>477</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="J71" t="s">
         <v>424</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="K71" t="s">
         <v>104</v>
       </c>
-      <c r="K71" s="10">
+      <c r="L71" s="7">
         <v>2013</v>
       </c>
-      <c r="L71" s="3" t="s">
+      <c r="M71" t="s">
         <v>478</v>
       </c>
-      <c r="M71" s="3" t="s">
+      <c r="N71" t="s">
         <v>479</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="4">
+    <row r="72" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="3">
+        <v>141</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" t="s">
         <v>481</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="E72" t="s">
         <v>482</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="F72" t="s">
         <v>24</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
         <v>483</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="I72" t="s">
         <v>484</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="J72" t="s">
         <v>424</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="K72" t="s">
         <v>49</v>
       </c>
-      <c r="K72" s="10">
+      <c r="L72" s="7">
         <v>1911</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="M72" t="s">
         <v>485</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="N72" t="s">
         <v>218</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="4">
+    <row r="73" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="3">
+        <v>2208</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" t="s">
         <v>487</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="E73" t="s">
         <v>488</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="F73" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
         <v>489</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="I73" t="s">
         <v>490</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="J73" t="s">
         <v>424</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="K73" t="s">
         <v>491</v>
       </c>
-      <c r="K73" s="10">
+      <c r="L73" s="7">
         <v>2000</v>
       </c>
-      <c r="L73" s="3" t="s">
+      <c r="M73" t="s">
         <v>492</v>
       </c>
-      <c r="M73" s="3" t="s">
+      <c r="N73" t="s">
         <v>439</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="4">
+    <row r="74" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="3">
+        <v>20723</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" t="s">
         <v>494</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="E74" t="s">
         <v>493</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F74" t="s">
         <v>15</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
         <v>495</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="I74" t="s">
         <v>496</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="J74" t="s">
         <v>424</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="K74" t="s">
         <v>497</v>
       </c>
-      <c r="K74" s="10">
+      <c r="L74" s="7">
         <v>2007</v>
       </c>
-      <c r="L74" s="3" t="s">
+      <c r="M74" t="s">
         <v>498</v>
       </c>
-      <c r="M74" s="3" t="s">
+      <c r="N74" t="s">
         <v>499</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="4">
+    <row r="75" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="3">
+        <v>13134</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" t="s">
         <v>501</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="E75" t="s">
         <v>502</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" t="s">
         <v>28</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
         <v>503</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="I75" t="s">
         <v>77</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="J75" t="s">
         <v>424</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="K75" t="s">
         <v>49</v>
       </c>
-      <c r="K75" s="10">
+      <c r="L75" s="7">
         <v>2012</v>
       </c>
-      <c r="L75" s="3" t="s">
+      <c r="M75" t="s">
         <v>504</v>
       </c>
-      <c r="M75" s="3" t="s">
+      <c r="N75" t="s">
         <v>505</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="4">
+    <row r="76" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="3">
+        <v>1194</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" t="s">
         <v>507</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="E76" t="s">
         <v>312</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" t="s">
         <v>19</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G76" s="3" t="s">
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
         <v>508</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="I76" t="s">
         <v>509</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="J76" t="s">
         <v>424</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="K76" t="s">
         <v>104</v>
       </c>
-      <c r="K76" s="10">
+      <c r="L76" s="7">
         <v>2002</v>
       </c>
-      <c r="L76" s="3" t="s">
+      <c r="M76" t="s">
         <v>510</v>
       </c>
-      <c r="M76" s="3" t="s">
+      <c r="N76" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="4">
+    <row r="77" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="3">
+        <v>12300</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" t="s">
         <v>512</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="E77" t="s">
         <v>511</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" t="s">
         <v>25</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
         <v>513</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="I77" t="s">
         <v>514</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="J77" t="s">
         <v>424</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="K77" t="s">
         <v>515</v>
       </c>
-      <c r="K77" s="10">
+      <c r="L77" s="7">
         <v>2005</v>
       </c>
-      <c r="L77" s="3" t="s">
+      <c r="M77" t="s">
         <v>516</v>
       </c>
-      <c r="M77" s="3" t="s">
+      <c r="N77" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="4">
+    <row r="78" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="3">
+        <v>13103</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" t="s">
         <v>518</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="E78" t="s">
         <v>517</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="F78" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
         <v>519</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="I78" t="s">
         <v>520</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="J78" t="s">
         <v>424</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="K78" t="s">
         <v>521</v>
       </c>
-      <c r="K78" s="10">
+      <c r="L78" s="7">
         <v>2004</v>
       </c>
-      <c r="L78" s="3" t="s">
+      <c r="M78" t="s">
         <v>522</v>
       </c>
-      <c r="M78" s="3" t="s">
+      <c r="N78" t="s">
         <v>523</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="4">
+    <row r="79" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="3">
+        <v>10671</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" t="s">
         <v>525</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="E79" t="s">
         <v>526</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="F79" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
         <v>527</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="I79" t="s">
         <v>528</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="J79" t="s">
         <v>424</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="K79" t="s">
         <v>104</v>
       </c>
-      <c r="K79" s="10">
+      <c r="L79" s="7">
         <v>1931</v>
       </c>
-      <c r="L79" s="3" t="s">
+      <c r="M79" t="s">
         <v>529</v>
       </c>
-      <c r="M79" s="3" t="s">
+      <c r="N79" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="4">
+    <row r="80" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="3">
+        <v>9127</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="D80" t="s">
         <v>531</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="E80" t="s">
         <v>532</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="F80" t="s">
         <v>3</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
         <v>533</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="I80" t="s">
         <v>534</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="J80" t="s">
         <v>424</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="K80" t="s">
         <v>515</v>
       </c>
-      <c r="K80" s="10">
+      <c r="L80" s="7">
         <v>1947</v>
       </c>
-      <c r="L80" s="3" t="s">
+      <c r="M80" t="s">
         <v>535</v>
       </c>
-      <c r="M80" s="3" t="s">
+      <c r="N80" t="s">
         <v>218</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="4">
+    <row r="81" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="3">
+        <v>13081</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" t="s">
         <v>537</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="E81" t="s">
         <v>538</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="F81" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
         <v>539</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="I81" t="s">
         <v>540</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="J81" t="s">
         <v>424</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="K81" t="s">
         <v>138</v>
       </c>
-      <c r="K81" s="10">
+      <c r="L81" s="7">
         <v>1932</v>
       </c>
-      <c r="L81" s="3" t="s">
+      <c r="M81" t="s">
         <v>541</v>
       </c>
-      <c r="M81" s="3" t="s">
+      <c r="N81" t="s">
         <v>439</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="4">
+    <row r="82" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="3">
+        <v>10673</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" t="s">
         <v>543</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="E82" t="s">
         <v>544</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="F82" t="s">
         <v>19</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G82" s="3" t="s">
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
         <v>545</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="I82" t="s">
         <v>546</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="J82" t="s">
         <v>424</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="K82" t="s">
         <v>547</v>
       </c>
-      <c r="K82" s="10">
+      <c r="L82" s="7">
         <v>2008</v>
       </c>
-      <c r="L82" s="3" t="s">
+      <c r="M82" t="s">
         <v>548</v>
       </c>
-      <c r="M82" s="3" t="s">
+      <c r="N82" t="s">
         <v>523</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="4">
+    <row r="83" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="3">
+        <v>15617</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" t="s">
         <v>550</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="E83" t="s">
         <v>551</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="F83" t="s">
         <v>18</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G83" s="3" t="s">
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
         <v>552</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="I83" t="s">
         <v>553</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="J83" t="s">
         <v>424</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" t="s">
         <v>554</v>
       </c>
-      <c r="K83" s="10">
+      <c r="L83" s="7">
         <v>1945</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" t="s">
         <v>555</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" t="s">
         <v>556</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="4">
+    <row r="84" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="3">
+        <v>2221</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" t="s">
         <v>558</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" t="s">
         <v>551</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="F84" t="s">
         <v>18</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
         <v>559</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="I84" t="s">
         <v>560</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="J84" t="s">
         <v>424</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="K84" t="s">
         <v>561</v>
       </c>
-      <c r="K84" s="10">
+      <c r="L84" s="7">
         <v>1948</v>
       </c>
-      <c r="L84" s="3" t="s">
+      <c r="M84" t="s">
         <v>562</v>
       </c>
-      <c r="M84" s="3" t="s">
+      <c r="N84" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="4">
+    <row r="85" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="3">
+        <v>7828</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" t="s">
         <v>564</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="E85" t="s">
         <v>353</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="F85" t="s">
         <v>25</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
         <v>565</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="I85" t="s">
         <v>566</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="J85" t="s">
         <v>424</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="K85" t="s">
         <v>138</v>
       </c>
-      <c r="K85" s="10">
+      <c r="L85" s="7">
         <v>1918</v>
       </c>
-      <c r="L85" s="3" t="s">
+      <c r="M85" t="s">
         <v>567</v>
       </c>
-      <c r="M85" s="3" t="s">
+      <c r="N85" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="4">
+    <row r="86" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="3">
+        <v>10478</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" t="s">
         <v>569</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="E86" t="s">
         <v>570</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="F86" t="s">
         <v>2</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
         <v>571</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="I86" t="s">
         <v>572</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="J86" t="s">
         <v>424</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="K86" t="s">
         <v>573</v>
       </c>
-      <c r="K86" s="10">
+      <c r="L86" s="7">
         <v>2011</v>
       </c>
-      <c r="L86" s="3" t="s">
+      <c r="M86" t="s">
         <v>574</v>
       </c>
-      <c r="M86" s="3" t="s">
+      <c r="N86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="4">
+    <row r="87" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="3">
+        <v>15505</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" t="s">
         <v>576</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="E87" t="s">
         <v>575</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="F87" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G87" s="3" t="s">
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
         <v>577</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="I87" t="s">
         <v>578</v>
       </c>
-      <c r="I87" s="3" t="s">
+      <c r="J87" t="s">
         <v>424</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="K87" t="s">
         <v>104</v>
       </c>
-      <c r="K87" s="10">
+      <c r="L87" s="7">
         <v>2002</v>
       </c>
-      <c r="L87" s="3" t="s">
+      <c r="M87" t="s">
         <v>579</v>
       </c>
-      <c r="M87" s="3" t="s">
+      <c r="N87" t="s">
         <v>338</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="4">
+    <row r="88" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="3">
+        <v>1201</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" t="s">
         <v>581</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="E88" t="s">
         <v>582</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="F88" t="s">
         <v>27</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
         <v>583</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="I88" t="s">
         <v>584</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="J88" t="s">
         <v>424</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="K88" t="s">
         <v>62</v>
       </c>
-      <c r="K88" s="10">
+      <c r="L88" s="7">
         <v>1913</v>
       </c>
-      <c r="L88" s="3" t="s">
+      <c r="M88" t="s">
         <v>585</v>
       </c>
-      <c r="M88" s="3" t="s">
+      <c r="N88" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="4">
+    <row r="89" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="3">
+        <v>12277</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" t="s">
         <v>587</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="E89" t="s">
         <v>586</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="F89" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G89" s="3" t="s">
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
         <v>588</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="I89" t="s">
         <v>589</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="J89" t="s">
         <v>424</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="K89" t="s">
         <v>145</v>
       </c>
-      <c r="K89" s="10">
+      <c r="L89" s="7">
         <v>1998</v>
       </c>
-      <c r="L89" s="3" t="s">
+      <c r="M89" t="s">
         <v>590</v>
       </c>
-      <c r="M89" s="3" t="s">
+      <c r="N89" t="s">
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="4">
+    <row r="90" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="3">
+        <v>7829</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" t="s">
         <v>592</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="E90" t="s">
         <v>591</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="F90" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G90" s="3" t="s">
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
         <v>593</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="I90" t="s">
         <v>594</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="J90" t="s">
         <v>424</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="K90" t="s">
         <v>595</v>
       </c>
-      <c r="K90" s="10">
+      <c r="L90" s="7">
         <v>2000</v>
       </c>
-      <c r="L90" s="3" t="s">
+      <c r="M90" t="s">
         <v>596</v>
       </c>
-      <c r="M90" s="3" t="s">
+      <c r="N90" t="s">
         <v>364</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="4">
+    <row r="91" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="3">
+        <v>2204</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" t="s">
         <v>598</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="E91" t="s">
         <v>597</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="F91" t="s">
         <v>26</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G91" s="3" t="s">
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
         <v>599</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="I91" t="s">
         <v>600</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="J91" t="s">
         <v>424</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="K91" t="s">
         <v>601</v>
       </c>
-      <c r="K91" s="10">
+      <c r="L91" s="7">
         <v>1938</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="M91" t="s">
         <v>602</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="N91" t="s">
         <v>603</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="4">
+    <row r="92" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="3">
+        <v>18831</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" t="s">
         <v>605</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="E92" t="s">
         <v>604</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="F92" t="s">
         <v>6</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G92" s="3" t="s">
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
         <v>606</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="I92" t="s">
         <v>607</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="J92" t="s">
         <v>424</v>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="K92" t="s">
         <v>104</v>
       </c>
-      <c r="K92" s="10">
+      <c r="L92" s="7">
         <v>1967</v>
       </c>
-      <c r="L92" s="3" t="s">
+      <c r="M92" t="s">
         <v>608</v>
       </c>
-      <c r="M92" s="3" t="s">
+      <c r="N92" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="4">
+    <row r="93" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="3">
+        <v>7831</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" t="s">
         <v>610</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="E93" t="s">
         <v>611</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="F93" t="s">
         <v>6</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
         <v>612</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="I93" t="s">
         <v>613</v>
       </c>
-      <c r="I93" s="3" t="s">
+      <c r="J93" t="s">
         <v>424</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="K93" t="s">
         <v>344</v>
       </c>
-      <c r="K93" s="10">
+      <c r="L93" s="7">
         <v>1965</v>
       </c>
-      <c r="L93" s="3" t="s">
+      <c r="M93" t="s">
         <v>614</v>
       </c>
-      <c r="M93" s="3" t="s">
+      <c r="N93" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="4">
+    <row r="94" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="3">
+        <v>1224</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" t="s">
         <v>616</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="E94" t="s">
         <v>617</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="F94" t="s">
         <v>6</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
         <v>618</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="I94" t="s">
         <v>619</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="J94" t="s">
         <v>424</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" t="s">
         <v>620</v>
       </c>
-      <c r="K94" s="10">
+      <c r="L94" s="7">
         <v>2006</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" t="s">
         <v>621</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" t="s">
         <v>622</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="4">
+    <row r="95" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="3">
+        <v>18308</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" t="s">
         <v>624</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="E95" t="s">
         <v>172</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="F95" t="s">
         <v>4</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
         <v>625</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="I95" t="s">
         <v>626</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="J95" t="s">
         <v>424</v>
       </c>
-      <c r="J95" s="3" t="s">
+      <c r="K95" t="s">
         <v>627</v>
       </c>
-      <c r="K95" s="10">
+      <c r="L95" s="7">
         <v>2018</v>
       </c>
-      <c r="L95" s="3" t="s">
+      <c r="M95" t="s">
         <v>628</v>
       </c>
-      <c r="M95" s="3" t="s">
+      <c r="N95" t="s">
         <v>629</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="4">
+    <row r="96" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="3">
+        <v>2214</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" t="s">
         <v>630</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="E96" t="s">
         <v>172</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="F96" t="s">
         <v>4</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G96" s="3" t="s">
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
         <v>173</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="I96" t="s">
         <v>631</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="J96" t="s">
         <v>424</v>
       </c>
-      <c r="J96" s="3" t="s">
+      <c r="K96" t="s">
         <v>183</v>
       </c>
-      <c r="K96" s="10">
+      <c r="L96" s="7">
         <v>2013</v>
       </c>
-      <c r="L96" s="3" t="s">
+      <c r="M96" t="s">
         <v>632</v>
       </c>
-      <c r="M96" s="3" t="s">
+      <c r="N96" t="s">
         <v>633</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="4">
+    <row r="97" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="3">
+        <v>13089</v>
+      </c>
+      <c r="C97" t="s">
         <v>115</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" t="s">
         <v>634</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="E97" t="s">
         <v>124</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="F97" t="s">
         <v>7</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G97" s="3" t="s">
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
         <v>635</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="I97" t="s">
         <v>636</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="J97" t="s">
         <v>424</v>
       </c>
-      <c r="J97" s="3" t="s">
+      <c r="K97" t="s">
         <v>104</v>
       </c>
-      <c r="K97" s="10">
+      <c r="L97" s="7">
         <v>2010</v>
       </c>
-      <c r="L97" s="3" t="s">
+      <c r="M97" t="s">
         <v>637</v>
       </c>
-      <c r="M97" s="3" t="s">
+      <c r="N97" t="s">
         <v>638</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="4">
+    <row r="98" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="3">
+        <v>7832</v>
+      </c>
+      <c r="C98" t="s">
         <v>639</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" t="s">
         <v>640</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="E98" t="s">
         <v>383</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G98" s="3" t="s">
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
         <v>209</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="I98" t="s">
         <v>384</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="J98" t="s">
         <v>424</v>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="K98" t="s">
         <v>601</v>
       </c>
-      <c r="K98" s="10">
+      <c r="L98" s="7">
         <v>1932</v>
       </c>
-      <c r="L98" s="3" t="s">
+      <c r="M98" t="s">
         <v>641</v>
       </c>
-      <c r="M98" s="3" t="s">
+      <c r="N98" t="s">
         <v>642</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="4">
+    <row r="99" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="3">
+        <v>7833</v>
+      </c>
+      <c r="C99" t="s">
         <v>643</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D99" t="s">
         <v>644</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="E99" t="s">
         <v>643</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="F99" t="s">
         <v>19</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G99" s="3" t="s">
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
         <v>645</v>
       </c>
-      <c r="H99" s="3" t="s">
+      <c r="I99" t="s">
         <v>646</v>
       </c>
-      <c r="I99" s="3" t="s">
+      <c r="J99" t="s">
         <v>424</v>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="K99" t="s">
         <v>647</v>
       </c>
-      <c r="K99" s="10">
+      <c r="L99" s="7">
         <v>2010</v>
       </c>
-      <c r="L99" s="3" t="s">
+      <c r="M99" t="s">
         <v>648</v>
       </c>
-      <c r="M99" s="3" t="s">
+      <c r="N99" t="s">
         <v>466</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="4">
+    <row r="100" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>99</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="3">
+        <v>2215</v>
+      </c>
+      <c r="C100" t="s">
         <v>649</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" t="s">
         <v>650</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="E100" t="s">
         <v>107</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="F100" t="s">
         <v>14</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G100" s="3" t="s">
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
         <v>109</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="I100" t="s">
         <v>109</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="J100" t="s">
         <v>424</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" t="s">
         <v>62</v>
       </c>
-      <c r="K100" s="10">
+      <c r="L100" s="7">
         <v>1934</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" t="s">
         <v>651</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="4">
+    <row r="101" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="3">
+        <v>2216</v>
+      </c>
+      <c r="C101" t="s">
         <v>652</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" t="s">
         <v>653</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="E101" t="s">
         <v>383</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
         <v>209</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="I101" t="s">
         <v>384</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="J101" t="s">
         <v>424</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" t="s">
         <v>49</v>
       </c>
-      <c r="K101" s="10">
+      <c r="L101" s="7">
         <v>1937</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" t="s">
         <v>654</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" t="s">
         <v>655</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="4">
+    <row r="102" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>101</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="3">
+        <v>7782</v>
+      </c>
+      <c r="C102" t="s">
         <v>656</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="D102" t="s">
         <v>657</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="E102" t="s">
         <v>656</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="F102" t="s">
         <v>20</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G102" s="3" t="s">
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
         <v>658</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="I102" t="s">
         <v>659</v>
       </c>
-      <c r="I102" s="3" t="s">
+      <c r="J102" t="s">
         <v>424</v>
       </c>
-      <c r="J102" s="3" t="s">
+      <c r="K102" t="s">
         <v>660</v>
       </c>
-      <c r="K102" s="10">
+      <c r="L102" s="7">
         <v>1990</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" t="s">
         <v>661</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" t="s">
         <v>199</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="4">
+    <row r="103" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="3">
+        <v>1199</v>
+      </c>
+      <c r="C103" t="s">
         <v>662</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" t="s">
         <v>663</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="E103" t="s">
         <v>662</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="F103" t="s">
         <v>24</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G103" s="3" t="s">
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s">
         <v>664</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="I103" t="s">
         <v>664</v>
       </c>
-      <c r="I103" s="3" t="s">
+      <c r="J103" t="s">
         <v>424</v>
       </c>
-      <c r="J103" s="3" t="s">
+      <c r="K103" t="s">
         <v>104</v>
       </c>
-      <c r="K103" s="10">
+      <c r="L103" s="7">
         <v>1911</v>
       </c>
-      <c r="L103" s="3" t="s">
+      <c r="M103" t="s">
         <v>665</v>
       </c>
-      <c r="M103" s="3" t="s">
+      <c r="N103" t="s">
         <v>666</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
-      <c r="A104" s="4">
+    <row r="104" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="3">
+        <v>7824</v>
+      </c>
+      <c r="C104" t="s">
         <v>667</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="D104" t="s">
         <v>668</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="E104" t="s">
         <v>669</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="F104" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G104" s="3" t="s">
+      <c r="G104" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" t="s">
         <v>670</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="I104" t="s">
         <v>671</v>
       </c>
-      <c r="I104" s="3" t="s">
+      <c r="J104" t="s">
         <v>424</v>
       </c>
-      <c r="J104" s="3" t="s">
+      <c r="K104" t="s">
         <v>344</v>
       </c>
-      <c r="K104" s="10">
+      <c r="L104" s="7">
         <v>1954</v>
       </c>
-      <c r="L104" s="3" t="s">
+      <c r="M104" t="s">
         <v>672</v>
       </c>
-      <c r="M104" s="3" t="s">
+      <c r="N104" t="s">
         <v>433</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="4">
+    <row r="105" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <v>104</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="3">
+        <v>12299</v>
+      </c>
+      <c r="C105" t="s">
         <v>673</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="D105" t="s">
         <v>674</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="E105" t="s">
         <v>673</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="F105" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G105" s="3" t="s">
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" t="s">
         <v>675</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="I105" t="s">
         <v>676</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="J105" t="s">
         <v>424</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="K105" t="s">
         <v>677</v>
       </c>
-      <c r="K105" s="10">
+      <c r="L105" s="7">
         <v>1998</v>
       </c>
-      <c r="L105" s="3" t="s">
+      <c r="M105" t="s">
         <v>678</v>
       </c>
-      <c r="M105" s="3" t="s">
+      <c r="N105" t="s">
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="4">
+    <row r="106" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="3">
+        <v>12946</v>
+      </c>
+      <c r="C106" t="s">
         <v>679</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="D106" t="s">
         <v>680</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="E106" t="s">
         <v>679</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="F106" t="s">
         <v>22</v>
       </c>
-      <c r="F106" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G106" s="3" t="s">
+      <c r="G106" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" t="s">
         <v>681</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="I106" t="s">
         <v>682</v>
       </c>
-      <c r="I106" s="3" t="s">
+      <c r="J106" t="s">
         <v>424</v>
       </c>
-      <c r="J106" s="3" t="s">
+      <c r="K106" t="s">
         <v>683</v>
       </c>
-      <c r="K106" s="10">
+      <c r="L106" s="7">
         <v>2018</v>
       </c>
-      <c r="L106" s="3" t="s">
+      <c r="M106" t="s">
         <v>684</v>
       </c>
-      <c r="M106" s="3" t="s">
+      <c r="N106" t="s">
         <v>346</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="4">
+    <row r="107" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>106</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="3">
+        <v>7835</v>
+      </c>
+      <c r="C107" t="s">
         <v>685</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="D107" t="s">
         <v>686</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="E107" t="s">
         <v>75</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="F107" t="s">
         <v>20</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G107" s="3" t="s">
+      <c r="G107" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" t="s">
         <v>687</v>
       </c>
-      <c r="H107" s="3" t="s">
+      <c r="I107" t="s">
         <v>688</v>
       </c>
-      <c r="I107" s="3" t="s">
+      <c r="J107" t="s">
         <v>424</v>
       </c>
-      <c r="J107" s="3" t="s">
+      <c r="K107" t="s">
         <v>689</v>
       </c>
-      <c r="K107" s="10">
+      <c r="L107" s="7">
         <v>1924</v>
       </c>
-      <c r="L107" s="3" t="s">
+      <c r="M107" t="s">
         <v>690</v>
       </c>
-      <c r="M107" s="3" t="s">
+      <c r="N107" t="s">
         <v>691</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="4">
+    <row r="108" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>107</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="3">
+        <v>7861</v>
+      </c>
+      <c r="C108" t="s">
         <v>692</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="D108" t="s">
         <v>693</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="E108" t="s">
         <v>694</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="F108" t="s">
         <v>21</v>
       </c>
-      <c r="F108" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G108" s="3" t="s">
+      <c r="G108" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" t="s">
         <v>695</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="I108" t="s">
         <v>696</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="J108" t="s">
         <v>424</v>
       </c>
-      <c r="J108" s="3" t="s">
+      <c r="K108" t="s">
         <v>138</v>
       </c>
-      <c r="K108" s="10">
+      <c r="L108" s="7">
         <v>1945</v>
       </c>
-      <c r="L108" s="3" t="s">
+      <c r="M108" t="s">
         <v>697</v>
       </c>
-      <c r="M108" s="3" t="s">
+      <c r="N108" t="s">
         <v>698</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="4">
+    <row r="109" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <v>108</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="3">
+        <v>13084</v>
+      </c>
+      <c r="C109" t="s">
         <v>699</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="D109" t="s">
         <v>700</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="E109" t="s">
         <v>699</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="F109" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G109" s="3" t="s">
+      <c r="G109" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" t="s">
         <v>701</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="I109" t="s">
         <v>702</v>
       </c>
-      <c r="I109" s="3" t="s">
+      <c r="J109" t="s">
         <v>424</v>
       </c>
-      <c r="J109" s="3" t="s">
+      <c r="K109" t="s">
         <v>49</v>
       </c>
-      <c r="K109" s="10">
+      <c r="L109" s="7">
         <v>1913</v>
       </c>
-      <c r="L109" s="3" t="s">
+      <c r="M109" t="s">
         <v>703</v>
       </c>
-      <c r="M109" s="3" t="s">
+      <c r="N109" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="4">
+    <row r="110" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="3">
+        <v>7862</v>
+      </c>
+      <c r="C110" t="s">
         <v>704</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="D110" t="s">
         <v>705</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="E110" t="s">
         <v>706</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="F110" t="s">
         <v>4</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G110" s="3" t="s">
+      <c r="G110" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" t="s">
         <v>707</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="I110" t="s">
         <v>708</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="J110" t="s">
         <v>424</v>
       </c>
-      <c r="J110" s="3" t="s">
+      <c r="K110" t="s">
         <v>138</v>
       </c>
-      <c r="K110" s="10">
+      <c r="L110" s="7">
         <v>1971</v>
       </c>
-      <c r="L110" s="3" t="s">
+      <c r="M110" t="s">
         <v>709</v>
       </c>
-      <c r="M110" s="3" t="s">
+      <c r="N110" t="s">
         <v>353</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="4">
+    <row r="111" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="3">
+        <v>12925</v>
+      </c>
+      <c r="C111" t="s">
         <v>710</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="D111" t="s">
         <v>711</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="E111" t="s">
         <v>712</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="F111" t="s">
         <v>8</v>
       </c>
-      <c r="F111" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G111" s="3" t="s">
+      <c r="G111" t="s">
+        <v>45</v>
+      </c>
+      <c r="H111" t="s">
         <v>713</v>
       </c>
-      <c r="H111" s="3" t="s">
+      <c r="I111" t="s">
         <v>714</v>
       </c>
-      <c r="I111" s="3" t="s">
+      <c r="J111" t="s">
         <v>424</v>
       </c>
-      <c r="J111" s="3" t="s">
+      <c r="K111" t="s">
         <v>104</v>
       </c>
-      <c r="K111" s="10">
+      <c r="L111" s="7">
         <v>1996</v>
       </c>
-      <c r="L111" s="3" t="s">
+      <c r="M111" t="s">
         <v>715</v>
       </c>
-      <c r="M111" s="3" t="s">
+      <c r="N111" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="4">
+    <row r="112" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="3">
+        <v>10679</v>
+      </c>
+      <c r="C112" t="s">
         <v>716</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="D112" t="s">
         <v>717</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="E112" t="s">
         <v>718</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="F112" t="s">
         <v>9</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G112" s="3" t="s">
+      <c r="G112" t="s">
+        <v>45</v>
+      </c>
+      <c r="H112" t="s">
         <v>719</v>
       </c>
-      <c r="H112" s="3" t="s">
+      <c r="I112" t="s">
         <v>720</v>
       </c>
-      <c r="I112" s="3" t="s">
+      <c r="J112" t="s">
         <v>424</v>
       </c>
-      <c r="J112" s="3" t="s">
+      <c r="K112" t="s">
         <v>138</v>
       </c>
-      <c r="K112" s="10">
+      <c r="L112" s="7">
         <v>2008</v>
       </c>
-      <c r="L112" s="3" t="s">
+      <c r="M112" t="s">
         <v>721</v>
       </c>
-      <c r="M112" s="3" t="s">
+      <c r="N112" t="s">
         <v>433</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
-      <c r="A113" s="4">
+    <row r="113" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <v>112</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="3">
+        <v>13098</v>
+      </c>
+      <c r="C113" t="s">
         <v>722</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="D113" t="s">
         <v>723</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="E113" t="s">
         <v>724</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="F113" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G113" s="3" t="s">
+      <c r="G113" t="s">
+        <v>45</v>
+      </c>
+      <c r="H113" t="s">
         <v>725</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="I113" t="s">
         <v>726</v>
       </c>
-      <c r="I113" s="3" t="s">
+      <c r="J113" t="s">
         <v>424</v>
       </c>
-      <c r="J113" s="3" t="s">
+      <c r="K113" t="s">
         <v>727</v>
       </c>
-      <c r="K113" s="10">
+      <c r="L113" s="7">
         <v>2016</v>
       </c>
-      <c r="L113" s="3" t="s">
+      <c r="M113" t="s">
         <v>728</v>
       </c>
-      <c r="M113" s="3" t="s">
+      <c r="N113" t="s">
         <v>729</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
-      <c r="A114" s="4">
+    <row r="114" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <v>113</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="3">
+        <v>2220</v>
+      </c>
+      <c r="C114" t="s">
         <v>730</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="D114" t="s">
         <v>731</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="E114" t="s">
         <v>730</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="F114" t="s">
         <v>2</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G114" s="3" t="s">
+      <c r="G114" t="s">
+        <v>45</v>
+      </c>
+      <c r="H114" t="s">
         <v>732</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="I114" t="s">
         <v>733</v>
       </c>
-      <c r="I114" s="3" t="s">
+      <c r="J114" t="s">
         <v>424</v>
       </c>
-      <c r="J114" s="3" t="s">
+      <c r="K114" t="s">
         <v>138</v>
       </c>
-      <c r="K114" s="10">
+      <c r="L114" s="7">
         <v>1919</v>
       </c>
-      <c r="L114" s="3" t="s">
+      <c r="M114" t="s">
         <v>734</v>
       </c>
-      <c r="M114" s="3" t="s">
+      <c r="N114" t="s">
         <v>735</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="4">
+    <row r="115" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="3">
+        <v>2222</v>
+      </c>
+      <c r="C115" t="s">
         <v>736</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="D115" t="s">
         <v>737</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="E115" t="s">
         <v>298</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="F115" t="s">
         <v>21</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G115" s="3" t="s">
+      <c r="G115" t="s">
+        <v>45</v>
+      </c>
+      <c r="H115" t="s">
         <v>299</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="I115" t="s">
         <v>300</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="J115" t="s">
         <v>424</v>
       </c>
-      <c r="J115" s="3" t="s">
+      <c r="K115" t="s">
         <v>561</v>
       </c>
-      <c r="K115" s="10">
+      <c r="L115" s="7">
         <v>1914</v>
       </c>
-      <c r="L115" s="3" t="s">
+      <c r="M115" t="s">
         <v>738</v>
       </c>
-      <c r="M115" s="3" t="s">
+      <c r="N115" t="s">
         <v>739</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="4">
+    <row r="116" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <v>115</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="3">
+        <v>10003</v>
+      </c>
+      <c r="C116" t="s">
         <v>740</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="D116" t="s">
         <v>741</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="E116" t="s">
         <v>740</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="F116" t="s">
         <v>27</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G116" s="3" t="s">
+      <c r="G116" t="s">
+        <v>45</v>
+      </c>
+      <c r="H116" t="s">
         <v>742</v>
       </c>
-      <c r="H116" s="3" t="s">
+      <c r="I116" t="s">
         <v>743</v>
       </c>
-      <c r="I116" s="3" t="s">
+      <c r="J116" t="s">
         <v>424</v>
       </c>
-      <c r="J116" s="3" t="s">
+      <c r="K116" t="s">
         <v>521</v>
       </c>
-      <c r="K116" s="10">
+      <c r="L116" s="7">
         <v>1967</v>
       </c>
-      <c r="L116" s="3" t="s">
+      <c r="M116" t="s">
         <v>744</v>
       </c>
-      <c r="M116" s="3" t="s">
+      <c r="N116" t="s">
         <v>745</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
-      <c r="A117" s="4">
+    <row r="117" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <v>116</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="3">
+        <v>15622</v>
+      </c>
+      <c r="C117" t="s">
         <v>746</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="D117" t="s">
         <v>747</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="E117" t="s">
         <v>748</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="F117" t="s">
         <v>27</v>
       </c>
-      <c r="F117" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G117" s="3" t="s">
+      <c r="G117" t="s">
+        <v>45</v>
+      </c>
+      <c r="H117" t="s">
         <v>749</v>
       </c>
-      <c r="H117" s="3" t="s">
+      <c r="I117" t="s">
         <v>750</v>
       </c>
-      <c r="I117" s="3" t="s">
+      <c r="J117" t="s">
         <v>424</v>
       </c>
-      <c r="J117" s="3" t="s">
+      <c r="K117" t="s">
         <v>104</v>
       </c>
-      <c r="K117" s="10">
+      <c r="L117" s="7">
         <v>1933</v>
       </c>
-      <c r="L117" s="3" t="s">
+      <c r="M117" t="s">
         <v>751</v>
       </c>
-      <c r="M117" s="3" t="s">
+      <c r="N117" t="s">
         <v>433</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
-      <c r="A118" s="4">
+    <row r="118" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <v>117</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="3">
+        <v>1218</v>
+      </c>
+      <c r="C118" t="s">
         <v>752</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="D118" t="s">
         <v>753</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="E118" t="s">
         <v>754</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="F118" t="s">
         <v>23</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G118" s="3" t="s">
+      <c r="G118" t="s">
+        <v>45</v>
+      </c>
+      <c r="H118" t="s">
         <v>755</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="I118" t="s">
         <v>756</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="J118" t="s">
         <v>424</v>
       </c>
-      <c r="J118" s="3" t="s">
+      <c r="K118" t="s">
         <v>104</v>
       </c>
-      <c r="K118" s="10">
+      <c r="L118" s="7">
         <v>1918</v>
       </c>
-      <c r="L118" s="3" t="s">
+      <c r="M118" t="s">
         <v>621</v>
       </c>
-      <c r="M118" s="3" t="s">
+      <c r="N118" t="s">
         <v>757</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
-      <c r="A119" s="4">
+    <row r="119" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <v>118</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="3">
+        <v>2224</v>
+      </c>
+      <c r="C119" t="s">
         <v>758</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="D119" t="s">
         <v>759</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="E119" t="s">
         <v>330</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="F119" t="s">
         <v>26</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G119" s="3" t="s">
+      <c r="G119" t="s">
+        <v>45</v>
+      </c>
+      <c r="H119" t="s">
         <v>760</v>
       </c>
-      <c r="H119" s="3" t="s">
+      <c r="I119" t="s">
         <v>761</v>
       </c>
-      <c r="I119" s="3" t="s">
+      <c r="J119" t="s">
         <v>424</v>
       </c>
-      <c r="J119" s="3" t="s">
+      <c r="K119" t="s">
         <v>138</v>
       </c>
-      <c r="K119" s="10">
+      <c r="L119" s="7">
         <v>1909</v>
       </c>
-      <c r="L119" s="3" t="s">
+      <c r="M119" t="s">
         <v>762</v>
       </c>
-      <c r="M119" s="3" t="s">
+      <c r="N119" t="s">
         <v>763</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="4">
+    <row r="120" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <v>119</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="3">
+        <v>2225</v>
+      </c>
+      <c r="C120" t="s">
         <v>764</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="D120" t="s">
         <v>765</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="E120" t="s">
         <v>764</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="F120" t="s">
         <v>9</v>
       </c>
-      <c r="F120" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G120" s="3" t="s">
+      <c r="G120" t="s">
+        <v>45</v>
+      </c>
+      <c r="H120" t="s">
         <v>766</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="I120" t="s">
         <v>767</v>
       </c>
-      <c r="I120" s="3" t="s">
+      <c r="J120" t="s">
         <v>424</v>
       </c>
-      <c r="J120" s="3" t="s">
+      <c r="K120" t="s">
         <v>448</v>
       </c>
-      <c r="K120" s="10">
+      <c r="L120" s="7">
         <v>1930</v>
       </c>
-      <c r="L120" s="3" t="s">
+      <c r="M120" t="s">
         <v>768</v>
       </c>
-      <c r="M120" s="3" t="s">
+      <c r="N120" t="s">
         <v>769</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
-      <c r="A121" s="4">
+    <row r="121" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <v>120</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="3">
+        <v>7864</v>
+      </c>
+      <c r="C121" t="s">
         <v>770</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="D121" t="s">
         <v>771</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="E121" t="s">
         <v>770</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="F121" t="s">
         <v>16</v>
       </c>
-      <c r="F121" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G121" s="3" t="s">
+      <c r="G121" t="s">
+        <v>45</v>
+      </c>
+      <c r="H121" t="s">
         <v>772</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="I121" t="s">
         <v>773</v>
       </c>
-      <c r="I121" s="3" t="s">
+      <c r="J121" t="s">
         <v>424</v>
       </c>
-      <c r="J121" s="3" t="s">
+      <c r="K121" t="s">
         <v>145</v>
       </c>
-      <c r="K121" s="10">
+      <c r="L121" s="7">
         <v>1991</v>
       </c>
-      <c r="L121" s="3" t="s">
+      <c r="M121" t="s">
         <v>774</v>
       </c>
-      <c r="M121" s="3" t="s">
+      <c r="N121" t="s">
         <v>775</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
-      <c r="A122" s="4">
+    <row r="122" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <v>121</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="3">
+        <v>7878</v>
+      </c>
+      <c r="C122" t="s">
         <v>776</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="D122" t="s">
         <v>777</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="E122" t="s">
         <v>776</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="F122" t="s">
         <v>28</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G122" s="3" t="s">
+      <c r="G122" t="s">
+        <v>45</v>
+      </c>
+      <c r="H122" t="s">
         <v>778</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="I122" t="s">
         <v>779</v>
       </c>
-      <c r="I122" s="3" t="s">
+      <c r="J122" t="s">
         <v>424</v>
       </c>
-      <c r="J122" s="3" t="s">
+      <c r="K122" t="s">
         <v>145</v>
       </c>
-      <c r="K122" s="10">
+      <c r="L122" s="7">
         <v>1989</v>
       </c>
-      <c r="L122" s="3" t="s">
+      <c r="M122" t="s">
         <v>780</v>
       </c>
-      <c r="M122" s="3" t="s">
+      <c r="N122" t="s">
         <v>147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
-      <c r="A123" s="4">
+    <row r="123" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <v>122</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="3">
+        <v>7868</v>
+      </c>
+      <c r="C123" t="s">
         <v>781</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="D123" t="s">
         <v>782</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="E123" t="s">
         <v>783</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="F123" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G123" s="3" t="s">
+      <c r="G123" t="s">
+        <v>45</v>
+      </c>
+      <c r="H123" t="s">
         <v>784</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="I123" t="s">
         <v>785</v>
       </c>
-      <c r="I123" s="3" t="s">
+      <c r="J123" t="s">
         <v>424</v>
       </c>
-      <c r="J123" s="3" t="s">
+      <c r="K123" t="s">
         <v>49</v>
       </c>
-      <c r="K123" s="10">
+      <c r="L123" s="7">
         <v>1947</v>
       </c>
-      <c r="L123" s="3" t="s">
+      <c r="M123" t="s">
         <v>786</v>
       </c>
-      <c r="M123" s="3" t="s">
+      <c r="N123" t="s">
         <v>787</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
-      <c r="A124" s="4">
+    <row r="124" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <v>123</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="3">
+        <v>7787</v>
+      </c>
+      <c r="C124" t="s">
         <v>788</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="D124" t="s">
         <v>789</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="E124" t="s">
         <v>790</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="F124" t="s">
         <v>16</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G124" s="3" t="s">
+      <c r="G124" t="s">
+        <v>45</v>
+      </c>
+      <c r="H124" t="s">
         <v>791</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="I124" t="s">
         <v>792</v>
       </c>
-      <c r="I124" s="3" t="s">
+      <c r="J124" t="s">
         <v>424</v>
       </c>
-      <c r="J124" s="3" t="s">
+      <c r="K124" t="s">
         <v>62</v>
       </c>
-      <c r="K124" s="10">
+      <c r="L124" s="7">
         <v>1925</v>
       </c>
-      <c r="L124" s="3" t="s">
+      <c r="M124" t="s">
         <v>793</v>
       </c>
-      <c r="M124" s="3" t="s">
+      <c r="N124" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
-      <c r="A125" s="4">
+    <row r="125" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <v>124</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="3">
+        <v>7788</v>
+      </c>
+      <c r="C125" t="s">
         <v>794</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="D125" t="s">
         <v>795</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="E125" t="s">
         <v>796</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="F125" t="s">
         <v>14</v>
       </c>
-      <c r="F125" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G125" s="3" t="s">
+      <c r="G125" t="s">
+        <v>45</v>
+      </c>
+      <c r="H125" t="s">
         <v>797</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="I125" t="s">
         <v>798</v>
       </c>
-      <c r="I125" s="3" t="s">
+      <c r="J125" t="s">
         <v>424</v>
       </c>
-      <c r="J125" s="3" t="s">
+      <c r="K125" t="s">
         <v>138</v>
       </c>
-      <c r="K125" s="10">
+      <c r="L125" s="7">
         <v>1973</v>
       </c>
-      <c r="L125" s="3" t="s">
+      <c r="M125" t="s">
         <v>799</v>
       </c>
-      <c r="M125" s="3" t="s">
+      <c r="N125" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7965,7 +8357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -7975,11 +8367,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7987,230 +8379,254 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A3)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A3)</f>
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A4)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A5)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A6)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A6)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A7)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A7)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A8)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A9)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A9)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A10)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A10)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A11)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A11)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A12)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A12)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A13)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A14)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A14)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A15)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A15)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A16)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A16)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A17)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A17)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A18)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A18)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A19)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A19)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A20)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A20)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A21)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A21)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A22)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A23)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A24)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A24)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A25)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3" t="s">
+      <c r="B25" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A25)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A26)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3" t="s">
+      <c r="B26" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A26)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A27)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3" t="s">
+      <c r="B27" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A27)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="4">
-        <f>COUNTIF(Plan1!E:E,'grafico estados'!A28)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4">
+      <c r="B28" s="3">
+        <f>COUNTIF(Plan1!F:F,'grafico estados'!A28)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
         <f>SUM(B2:B28)</f>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
